--- a/data/hotels_by_city/Houston/Houston_shard_105.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_105.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="445">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223179-Reviews-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Inn-Suites-Southwest-Fwy-At-Westpark.h18528.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1231 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r584266033-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223179</t>
+  </si>
+  <si>
+    <t>584266033</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Ok type</t>
+  </si>
+  <si>
+    <t>I stayed for around 5 nights in this hotel which is based in Houston. It is an average hotel in a good location. The rooms were ok type . The time I stayed , there were some construction going on .  The complemental breakfast was also average.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r576504203-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576504203</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Thanks Nick!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I enjoyed my stay here &amp; I would like to thank Nick for helping me with my reservation. Its a busy weekend here due to an event in town and he did excellent in multitasking. Looking forward tobsyaying here again! </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r576492306-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576492306</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>Air condition was BROKen engineering CAME and replaced the unit it was late after 10pm he changed the entire unit. We were not given fresh baked cookies at checin but bottled water. Breakfast was very good.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r554323628-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554323628</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>I declared my service dog upon checkin as I do every where I travel I am a Comfort Inn ( Choice Hotels)Rewards member.</t>
+  </si>
+  <si>
+    <t>The front desk clerk on the overnight shift was very unfriendly. She says " WE ARE NOT A PET FRIENDLY HOTEL&gt;" this weekend there were at least three other dogs at this hotel But I had Gabe's SERVICE DOG harness on and every thing. It was cold outside he also had his jacket on. The clerk asked me for my I&gt;D&gt; I have never been treated with so much disrespect as I was this night. I will talk to the general manger in the morning. They could use a general cleaning this is suppose to be a smoke free but I can tell someone has smoked in this room being a non smoker.The staff is friendly the breakfast good for what it is. Hot fresh foodMoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk clerk on the overnight shift was very unfriendly. She says " WE ARE NOT A PET FRIENDLY HOTEL&gt;" this weekend there were at least three other dogs at this hotel But I had Gabe's SERVICE DOG harness on and every thing. It was cold outside he also had his jacket on. The clerk asked me for my I&gt;D&gt; I have never been treated with so much disrespect as I was this night. I will talk to the general manger in the morning. They could use a general cleaning this is suppose to be a smoke free but I can tell someone has smoked in this room being a non smoker.The staff is friendly the breakfast good for what it is. Hot fresh foodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r552114097-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>552114097</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>Roach Motel</t>
+  </si>
+  <si>
+    <t>I was not recognized as a Diamond member when checking in.  The hotel has a ton of deferred maintenance.  I checked room 1 and it had roaches.  They put me in a second room and it had roaches.  The breakfast was not all that great.  The service personnel were not that friendly.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r541816809-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541816809</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Not too far from MD Anderson Medical Campus</t>
+  </si>
+  <si>
+    <t>Well I wasn't able to take pictures of this property this time around.  I was diagnosed with cancer and was having a specialist take a look at my case at MD Anderson.  This hotel is around 20 miles from MD Anderson and around a 30-40 min drive depending on traffic.  I liked location because its near downtown but still easy to park and plenty of eating/stores nearby.  The beds in the room were pretty used and firm but I slept okay.  We stayed on the 5th floor and this was much less noisy so I would recommend the upper floors.  The shower head needs some attention because the water has minerals that have clogged it up so it sprays all over the bathroom.  The shower curtain does little to no good.  Also one big pet peeve is getting towels at this property.  I asked the maids for towels and they said I needed to ask the front desk and then front desk wrote it down.  I was never contacted about new towels.  By the end of the day I told front desk 2 more times for new towels and they again forgot about them.  I finally was able to get 2 towels on a shift change between front desk personnel.  I have never had a towel experience like this.  I didn't even need maid service to the rooms; all I needed was some replacement towels since it was a 4...Well I wasn't able to take pictures of this property this time around.  I was diagnosed with cancer and was having a specialist take a look at my case at MD Anderson.  This hotel is around 20 miles from MD Anderson and around a 30-40 min drive depending on traffic.  I liked location because its near downtown but still easy to park and plenty of eating/stores nearby.  The beds in the room were pretty used and firm but I slept okay.  We stayed on the 5th floor and this was much less noisy so I would recommend the upper floors.  The shower head needs some attention because the water has minerals that have clogged it up so it sprays all over the bathroom.  The shower curtain does little to no good.  Also one big pet peeve is getting towels at this property.  I asked the maids for towels and they said I needed to ask the front desk and then front desk wrote it down.  I was never contacted about new towels.  By the end of the day I told front desk 2 more times for new towels and they again forgot about them.  I finally was able to get 2 towels on a shift change between front desk personnel.  I have never had a towel experience like this.  I didn't even need maid service to the rooms; all I needed was some replacement towels since it was a 4 day stay.  If they can get this working then the hotel would be nicer and less hectic.  I used the onsite laundry facility and it was very convenient and reasonable.  Overall not a bad stay but the towel situation was quite annoying.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Well I wasn't able to take pictures of this property this time around.  I was diagnosed with cancer and was having a specialist take a look at my case at MD Anderson.  This hotel is around 20 miles from MD Anderson and around a 30-40 min drive depending on traffic.  I liked location because its near downtown but still easy to park and plenty of eating/stores nearby.  The beds in the room were pretty used and firm but I slept okay.  We stayed on the 5th floor and this was much less noisy so I would recommend the upper floors.  The shower head needs some attention because the water has minerals that have clogged it up so it sprays all over the bathroom.  The shower curtain does little to no good.  Also one big pet peeve is getting towels at this property.  I asked the maids for towels and they said I needed to ask the front desk and then front desk wrote it down.  I was never contacted about new towels.  By the end of the day I told front desk 2 more times for new towels and they again forgot about them.  I finally was able to get 2 towels on a shift change between front desk personnel.  I have never had a towel experience like this.  I didn't even need maid service to the rooms; all I needed was some replacement towels since it was a 4...Well I wasn't able to take pictures of this property this time around.  I was diagnosed with cancer and was having a specialist take a look at my case at MD Anderson.  This hotel is around 20 miles from MD Anderson and around a 30-40 min drive depending on traffic.  I liked location because its near downtown but still easy to park and plenty of eating/stores nearby.  The beds in the room were pretty used and firm but I slept okay.  We stayed on the 5th floor and this was much less noisy so I would recommend the upper floors.  The shower head needs some attention because the water has minerals that have clogged it up so it sprays all over the bathroom.  The shower curtain does little to no good.  Also one big pet peeve is getting towels at this property.  I asked the maids for towels and they said I needed to ask the front desk and then front desk wrote it down.  I was never contacted about new towels.  By the end of the day I told front desk 2 more times for new towels and they again forgot about them.  I finally was able to get 2 towels on a shift change between front desk personnel.  I have never had a towel experience like this.  I didn't even need maid service to the rooms; all I needed was some replacement towels since it was a 4 day stay.  If they can get this working then the hotel would be nicer and less hectic.  I used the onsite laundry facility and it was very convenient and reasonable.  Overall not a bad stay but the towel situation was quite annoying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r486277509-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486277509</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>When I checked it, I thought I would be dealing with a lot of traffic noise, to my surprise, it was sooo quiet! Great value for the price. Large comfy king size bed. Clean room, had microwave and a fridge. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Front D, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>When I checked it, I thought I would be dealing with a lot of traffic noise, to my surprise, it was sooo quiet! Great value for the price. Large comfy king size bed. Clean room, had microwave and a fridge. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r481091934-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481091934</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Everything was fine but overpriced</t>
+  </si>
+  <si>
+    <t>This is a pretty standard Comfort Inn hotel - breakfast was okay (crowded-no place to sit) with hot eggs, bacon and a waffle maker.  Wifi was free and it worked well.  Everything was okay - I just felt it was overpriced for a standard Comfort Inn room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Front D, Front Office Manager at Comfort Inn &amp; Suites, responded to this reviewResponded May 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2017</t>
+  </si>
+  <si>
+    <t>This is a pretty standard Comfort Inn hotel - breakfast was okay (crowded-no place to sit) with hot eggs, bacon and a waffle maker.  Wifi was free and it worked well.  Everything was okay - I just felt it was overpriced for a standard Comfort Inn room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r478700654-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478700654</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Kashan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am more than satisfied by the services provided. The staff and the breakfast was just great. Particularly the beautiful girl Jackie and Jasson at the reception were very coperative. The location was ideal. I am really missing my stay there..Thank you once again Team Comfort Inn. I will definitly will love to stay again..Love </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r432801148-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432801148</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>Amenities</t>
+  </si>
+  <si>
+    <t>In the Guest Services Directory this hotel proclaims that "due to the popularity" of many of the items in their rooms, many of them are for sale ... and if the room attendant finds them missing, "we will assume you approve a corresponding charge to your account." Since my wife had noticed that the room lacked a clock, I went to the desk and asked for a copy of the attendant's inventory. I was refused. I asked for a copy of my noting that the clock was missing. I was refused. This not neither the first nor the second issue we have had with Comfort Inns.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Front D, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded November 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2016</t>
+  </si>
+  <si>
+    <t>In the Guest Services Directory this hotel proclaims that "due to the popularity" of many of the items in their rooms, many of them are for sale ... and if the room attendant finds them missing, "we will assume you approve a corresponding charge to your account." Since my wife had noticed that the room lacked a clock, I went to the desk and asked for a copy of the attendant's inventory. I was refused. I asked for a copy of my noting that the clock was missing. I was refused. This not neither the first nor the second issue we have had with Comfort Inns.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r429060291-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429060291</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>BETTER THAN EXPECTED</t>
+  </si>
+  <si>
+    <t>Comfortable and clean rooms at this hotel with friendly and helpful staff. Free breakfast not too bad. Only problem is the distance to the city and if you have no car getting around is tough as the staff have no idea about the bus service, which actually works well if you can figure it out. Bus timetables  and A shuttle service would have been a great  help. if you are a tourist and cannot hire a car , rather go upmarket and choose a hotel in town.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Comfortable and clean rooms at this hotel with friendly and helpful staff. Free breakfast not too bad. Only problem is the distance to the city and if you have no car getting around is tough as the staff have no idea about the bus service, which actually works well if you can figure it out. Bus timetables  and A shuttle service would have been a great  help. if you are a tourist and cannot hire a car , rather go upmarket and choose a hotel in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r428670031-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>428670031</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Basic Hotel</t>
+  </si>
+  <si>
+    <t>Very large rooms with balconies. Illumination in rooms need improvement. Not much of ambience. Inadequate staff at reception. Okay breakfast. Free shuttles to theme parks. Not much of service. Good location with many hotels &amp; restaurants around.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Very large rooms with balconies. Illumination in rooms need improvement. Not much of ambience. Inadequate staff at reception. Okay breakfast. Free shuttles to theme parks. Not much of service. Good location with many hotels &amp; restaurants around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r396641267-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396641267</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Non smoking-Ha, not really</t>
+  </si>
+  <si>
+    <t>This is a non smoking hotel so all the smokers are around the hotel at every exit and even the pool and then come in and get in the elevator and smell it up and not in a good way. Carpet could use some work, kids feet were black after a few min. of being barefoot.  We stayed here because the non smoking status but had a terrible time using the pool because of the smokers and a large group drinking beer in glass bottles around the pool (which glass is not allowed).   I complained and the dark skinned woman that works evenings has a no care attitude. These guys were so drunk they had to carry their buddy up but of course they came right back.  James the morning guy acts like he owns the place and knows it all-had issues in the business center and seemed put out that he had to come help-he had no clue.  No housekeeping nor breakfast people speak English so if you need some thing from them your out of luck.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>This is a non smoking hotel so all the smokers are around the hotel at every exit and even the pool and then come in and get in the elevator and smell it up and not in a good way. Carpet could use some work, kids feet were black after a few min. of being barefoot.  We stayed here because the non smoking status but had a terrible time using the pool because of the smokers and a large group drinking beer in glass bottles around the pool (which glass is not allowed).   I complained and the dark skinned woman that works evenings has a no care attitude. These guys were so drunk they had to carry their buddy up but of course they came right back.  James the morning guy acts like he owns the place and knows it all-had issues in the business center and seemed put out that he had to come help-he had no clue.  No housekeeping nor breakfast people speak English so if you need some thing from them your out of luck.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r382910897-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382910897</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>EXCELLENT HOTEL, SERVICE, VALUE!</t>
+  </si>
+  <si>
+    <t>First time at the comfort suites, this hotel surpassed my expectations. Excellent breakfast options, very clean, comfortable beds, lots of TV channel options and to top it off, very nice staff. The gentleman at the front desk greeted us with a huge smile and checked us in within seconds. Will surely come to this hotel next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>First time at the comfort suites, this hotel surpassed my expectations. Excellent breakfast options, very clean, comfortable beds, lots of TV channel options and to top it off, very nice staff. The gentleman at the front desk greeted us with a huge smile and checked us in within seconds. Will surely come to this hotel next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r379731810-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379731810</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short stay, but great. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U get what u pay for, the price was reasonable, room was nice, clean. Hotel is across from a starbucks so that was great. The free breakfast is great especially if u have children. The staff I encountered was wonderful.  Easy access to alot of things. Would definitely stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r365560464-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365560464</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Clean and convenient</t>
+  </si>
+  <si>
+    <t>Not very far from the airport. They sent a car to pick us up but it took 40 minutes to arrive.  When we phoned them up there was nobody answering the phone on the second occasion which was rather stressful after a long journey and late at night.The hotel itself is clean and comfortable and the staff are friendly.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r357953558-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357953558</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Great value, great staff</t>
+  </si>
+  <si>
+    <t>Stayed here for the Houston Livestock Show. Manager Al was extremely helpful when we needed assistance parking a long trailer. Brandon helped out on the phone several times when we needed to make adjustments to reservations and even got us a better rate than we originally booked. Very patient and friendly staff. Clean, nice size rooms, secure, walking distance to food places. Great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Blake G, Front Office Manager at Comfort Inn &amp; Suites, responded to this reviewResponded March 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for the Houston Livestock Show. Manager Al was extremely helpful when we needed assistance parking a long trailer. Brandon helped out on the phone several times when we needed to make adjustments to reservations and even got us a better rate than we originally booked. Very patient and friendly staff. Clean, nice size rooms, secure, walking distance to food places. Great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r354025949-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354025949</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here for 11 nights and I would highly recommend this place. The rooms were nice and spacious. The front desk was very helpful, especially Alma. She was so helpful to me.  The breakfast was good but I feel should be varied on daily basis. This makes your extended stay more relaxing. But as a whole it was fantastic place. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r348091119-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348091119</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>poor room we were in.it was under construction ;</t>
+  </si>
+  <si>
+    <t>we checked in room 503 the room was i guess under construction when you walk the carpet moves.the walls have spots that needs to be painted.the shower rod was taped with blue construction tape at one of its end and the tape was left in the bathroom.the towels are dirty with black spots on it my husband took pictures of what we saw..we expect better place as advertised but it was the worst experience of our life.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Blake G, Front Office Manager at Comfort Inn &amp; Suites, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>we checked in room 503 the room was i guess under construction when you walk the carpet moves.the walls have spots that needs to be painted.the shower rod was taped with blue construction tape at one of its end and the tape was left in the bathroom.the towels are dirty with black spots on it my husband took pictures of what we saw..we expect better place as advertised but it was the worst experience of our life.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r347216621-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347216621</t>
+  </si>
+  <si>
+    <t>02/12/2016</t>
+  </si>
+  <si>
+    <t>Clean, Amazingly Efficient Service, Extremely Courteous Staff!</t>
+  </si>
+  <si>
+    <t>This was my first visit to Texas.  The entire staff at this hotel was so courteous and accommodating.  I got there early and was allowed to check in early.  I also got stuck in Texas due to a snow storm in NY and all the airports were closed.  I was able to extend my stay at the current rate, keep my room and also granted a late checkout because I had a late flight.  The staff recommended activities and sites to visit.  The rooms are extremely spacious, lots of storage, and the cleaning staff was efficient and helpful.  A delicious breakfast buffet was available each morning free of charge and the he business center on the first floor came in handy.  I will definitely stay at this hotel again!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Erin F, Administrative Assistant at Comfort Inn &amp; Suites, responded to this reviewResponded February 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2016</t>
+  </si>
+  <si>
+    <t>This was my first visit to Texas.  The entire staff at this hotel was so courteous and accommodating.  I got there early and was allowed to check in early.  I also got stuck in Texas due to a snow storm in NY and all the airports were closed.  I was able to extend my stay at the current rate, keep my room and also granted a late checkout because I had a late flight.  The staff recommended activities and sites to visit.  The rooms are extremely spacious, lots of storage, and the cleaning staff was efficient and helpful.  A delicious breakfast buffet was available each morning free of charge and the he business center on the first floor came in handy.  I will definitely stay at this hotel again!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r334450251-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334450251</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>STAYING FOR MEDICAL TRIP AT MD ANDERSON</t>
+  </si>
+  <si>
+    <t>Stayed here twice for medical trip to MD Anderson. Staff was wonderful and both times supper was provided in lobby which was awesome.   Would recommend this hotel drive to medical center is approx 20-25 minutes. .MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Erin F, Front Office Manager at Comfort Inn &amp; Suites, responded to this reviewResponded December 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here twice for medical trip to MD Anderson. Staff was wonderful and both times supper was provided in lobby which was awesome.   Would recommend this hotel drive to medical center is approx 20-25 minutes. .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r330384317-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330384317</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor customer service ! </t>
+  </si>
+  <si>
+    <t>Basic customer service that I would have expected was nowhere to be seen. I had been waiting at the front desk to speak to someone, no one came to my attendance. The phone was ringing off the hook, for about 2 minutes continuously, and only then, someone came to answer the phone. After they finished talking on the phone, they went straight back to the office, without even acknowledging me! If I was told "I will be right with you", that would have been appreciated, however nothing was said, and not even any eye contact. Unfortunately, this will be my last visit to Comfort Inn &amp; Suites. I am very disappointed with my stay, as I see so much potential to be so much better than what I have experienced.MoreShow less</t>
+  </si>
+  <si>
+    <t>Erin F, Administrative Assistant at Comfort Inn &amp; Suites, responded to this reviewResponded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Basic customer service that I would have expected was nowhere to be seen. I had been waiting at the front desk to speak to someone, no one came to my attendance. The phone was ringing off the hook, for about 2 minutes continuously, and only then, someone came to answer the phone. After they finished talking on the phone, they went straight back to the office, without even acknowledging me! If I was told "I will be right with you", that would have been appreciated, however nothing was said, and not even any eye contact. Unfortunately, this will be my last visit to Comfort Inn &amp; Suites. I am very disappointed with my stay, as I see so much potential to be so much better than what I have experienced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r329708677-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>329708677</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Great Facility and Staff!</t>
+  </si>
+  <si>
+    <t>Outstanding facility and staff!  Clean from top to bottom with excellent customer service!  A very enjoyable and restful place to stay!  Located in a people friendly area of Stafford. Great dining and shopping!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Al M, Administrative Assistant at Comfort Inn &amp; Suites, responded to this reviewResponded December 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2015</t>
+  </si>
+  <si>
+    <t>Outstanding facility and staff!  Clean from top to bottom with excellent customer service!  A very enjoyable and restful place to stay!  Located in a people friendly area of Stafford. Great dining and shopping!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r324517825-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324517825</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Really good hotel !</t>
+  </si>
+  <si>
+    <t>Went on a business trip and found it perfect for my needs. Clean rooms, AC works perfect. Front desk staff is friendly and very polite. Plenty of options around for dinners like Denny's, KFC, Starbucks and plenty of good Indian restaurants. I will go back again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Went on a business trip and found it perfect for my needs. Clean rooms, AC works perfect. Front desk staff is friendly and very polite. Plenty of options around for dinners like Denny's, KFC, Starbucks and plenty of good Indian restaurants. I will go back again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r295827942-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295827942</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Memorable Horror!!!</t>
+  </si>
+  <si>
+    <t>2rooms reserved 2months in advance NOT!!! Make sure u have a backup Plan!!! If U  are Handicapped Be sure u tell booking agent the extent of your handicap ability because the handicap rooms above the 1st fl are pretty much the same as regular room. All handicap rooms if u use wheelchair r on 1st floor. The staff was Not Pleasant or compassionate or Helpful. We was pushing luggage racks,getting clean towels &amp; bedding to our room &amp; transporting our one rollaway bed  trying to figure out what would best work  for our 2day stay because reservation  were not Met. Had to make a trip to cvs because toilet seat was too low Not Handicap equip  to buy a lifted seat for toilet!! Just so u know the hotel Does Have a Shuttle! Rooms are Cramped  &amp; Not The cleanest. So don't plan to spend to much time in rooms. Rollaway I had Spring was poking me in the back! Bedding was not clean. I was told it would sleep 2 people Not!  Breakfast May not include Meat as stated on the Web Possibility of Running Out if Hotel is Booked as I was told!  There was No meat for Breakfast for My two days of Stay! So IF U are planning a stay at this establishment PLEASE MAKE SURE ALL YOUR I'S are Dotted &amp; Your T'S are Crossed! This stay is still Haunting Me! Just Remember as We...2rooms reserved 2months in advance NOT!!! Make sure u have a backup Plan!!! If U  are Handicapped Be sure u tell booking agent the extent of your handicap ability because the handicap rooms above the 1st fl are pretty much the same as regular room. All handicap rooms if u use wheelchair r on 1st floor. The staff was Not Pleasant or compassionate or Helpful. We was pushing luggage racks,getting clean towels &amp; bedding to our room &amp; transporting our one rollaway bed  trying to figure out what would best work  for our 2day stay because reservation  were not Met. Had to make a trip to cvs because toilet seat was too low Not Handicap equip  to buy a lifted seat for toilet!! Just so u know the hotel Does Have a Shuttle! Rooms are Cramped  &amp; Not The cleanest. So don't plan to spend to much time in rooms. Rollaway I had Spring was poking me in the back! Bedding was not clean. I was told it would sleep 2 people Not!  Breakfast May not include Meat as stated on the Web Possibility of Running Out if Hotel is Booked as I was told!  There was No meat for Breakfast for My two days of Stay! So IF U are planning a stay at this establishment PLEASE MAKE SURE ALL YOUR I'S are Dotted &amp; Your T'S are Crossed! This stay is still Haunting Me! Just Remember as We Were told by the Hotel Staff " OH YES U DO HAVE A CHOICE!" I gave this review a 1 Star because I was Thankful We had a Roof Over  Heads.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Erin F, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded August 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2015</t>
+  </si>
+  <si>
+    <t>2rooms reserved 2months in advance NOT!!! Make sure u have a backup Plan!!! If U  are Handicapped Be sure u tell booking agent the extent of your handicap ability because the handicap rooms above the 1st fl are pretty much the same as regular room. All handicap rooms if u use wheelchair r on 1st floor. The staff was Not Pleasant or compassionate or Helpful. We was pushing luggage racks,getting clean towels &amp; bedding to our room &amp; transporting our one rollaway bed  trying to figure out what would best work  for our 2day stay because reservation  were not Met. Had to make a trip to cvs because toilet seat was too low Not Handicap equip  to buy a lifted seat for toilet!! Just so u know the hotel Does Have a Shuttle! Rooms are Cramped  &amp; Not The cleanest. So don't plan to spend to much time in rooms. Rollaway I had Spring was poking me in the back! Bedding was not clean. I was told it would sleep 2 people Not!  Breakfast May not include Meat as stated on the Web Possibility of Running Out if Hotel is Booked as I was told!  There was No meat for Breakfast for My two days of Stay! So IF U are planning a stay at this establishment PLEASE MAKE SURE ALL YOUR I'S are Dotted &amp; Your T'S are Crossed! This stay is still Haunting Me! Just Remember as We...2rooms reserved 2months in advance NOT!!! Make sure u have a backup Plan!!! If U  are Handicapped Be sure u tell booking agent the extent of your handicap ability because the handicap rooms above the 1st fl are pretty much the same as regular room. All handicap rooms if u use wheelchair r on 1st floor. The staff was Not Pleasant or compassionate or Helpful. We was pushing luggage racks,getting clean towels &amp; bedding to our room &amp; transporting our one rollaway bed  trying to figure out what would best work  for our 2day stay because reservation  were not Met. Had to make a trip to cvs because toilet seat was too low Not Handicap equip  to buy a lifted seat for toilet!! Just so u know the hotel Does Have a Shuttle! Rooms are Cramped  &amp; Not The cleanest. So don't plan to spend to much time in rooms. Rollaway I had Spring was poking me in the back! Bedding was not clean. I was told it would sleep 2 people Not!  Breakfast May not include Meat as stated on the Web Possibility of Running Out if Hotel is Booked as I was told!  There was No meat for Breakfast for My two days of Stay! So IF U are planning a stay at this establishment PLEASE MAKE SURE ALL YOUR I'S are Dotted &amp; Your T'S are Crossed! This stay is still Haunting Me! Just Remember as We Were told by the Hotel Staff " OH YES U DO HAVE A CHOICE!" I gave this review a 1 Star because I was Thankful We had a Roof Over  Heads.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r293761644-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293761644</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Convenient location, but not suited for the handicap</t>
+  </si>
+  <si>
+    <t>Was attending a family reunion the weekend of July 24, 2015 and stayed at this hotel for 2 nights. My mother who is in a wheelchair had booked two rooms at least 2 months in advance, and one of the rooms was supposed to be handicap accessible. Well, once we got there the front desk staff said the people who were in the handicap room had decided to stay longer, and there were no other rooms of this type available. 
+After much painstaking discussion, we were given a couple of rooms. The handicap room came with a cheaply built cot that was supposed to be used by anyone who is handicapped. Then to add insult, we ended up having to move the cot from one room to another ourselves. Later we found the sheets on the cot weren't cleaned. The front desk personnel said this was their version of a handicap room. I even showed her a picture of what other hotels considered a handicap room. 
+Basically, I felt the lady at the front desk who waited on us was uncaring, and lacked professionalism when dealing with customers. Tried also talking to the manager on duty, and his response was; "we had other options". If I had to stay any longer than two nights at this hotel we would have gladly moved. 
+A few other things I noticed was: no meat served with breakfast, needed room key to get access...Was attending a family reunion the weekend of July 24, 2015 and stayed at this hotel for 2 nights. My mother who is in a wheelchair had booked two rooms at least 2 months in advance, and one of the rooms was supposed to be handicap accessible. Well, once we got there the front desk staff said the people who were in the handicap room had decided to stay longer, and there were no other rooms of this type available. After much painstaking discussion, we were given a couple of rooms. The handicap room came with a cheaply built cot that was supposed to be used by anyone who is handicapped. Then to add insult, we ended up having to move the cot from one room to another ourselves. Later we found the sheets on the cot weren't cleaned. The front desk personnel said this was their version of a handicap room. I even showed her a picture of what other hotels considered a handicap room. Basically, I felt the lady at the front desk who waited on us was uncaring, and lacked professionalism when dealing with customers. Tried also talking to the manager on duty, and his response was; "we had other options". If I had to stay any longer than two nights at this hotel we would have gladly moved. A few other things I noticed was: no meat served with breakfast, needed room key to get access to floors, but the stairways weren't locked. I think this hotel has potentiaI, but at this time I would suggest if you have other options, consider them before staying at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Erin F, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Was attending a family reunion the weekend of July 24, 2015 and stayed at this hotel for 2 nights. My mother who is in a wheelchair had booked two rooms at least 2 months in advance, and one of the rooms was supposed to be handicap accessible. Well, once we got there the front desk staff said the people who were in the handicap room had decided to stay longer, and there were no other rooms of this type available. 
+After much painstaking discussion, we were given a couple of rooms. The handicap room came with a cheaply built cot that was supposed to be used by anyone who is handicapped. Then to add insult, we ended up having to move the cot from one room to another ourselves. Later we found the sheets on the cot weren't cleaned. The front desk personnel said this was their version of a handicap room. I even showed her a picture of what other hotels considered a handicap room. 
+Basically, I felt the lady at the front desk who waited on us was uncaring, and lacked professionalism when dealing with customers. Tried also talking to the manager on duty, and his response was; "we had other options". If I had to stay any longer than two nights at this hotel we would have gladly moved. 
+A few other things I noticed was: no meat served with breakfast, needed room key to get access...Was attending a family reunion the weekend of July 24, 2015 and stayed at this hotel for 2 nights. My mother who is in a wheelchair had booked two rooms at least 2 months in advance, and one of the rooms was supposed to be handicap accessible. Well, once we got there the front desk staff said the people who were in the handicap room had decided to stay longer, and there were no other rooms of this type available. After much painstaking discussion, we were given a couple of rooms. The handicap room came with a cheaply built cot that was supposed to be used by anyone who is handicapped. Then to add insult, we ended up having to move the cot from one room to another ourselves. Later we found the sheets on the cot weren't cleaned. The front desk personnel said this was their version of a handicap room. I even showed her a picture of what other hotels considered a handicap room. Basically, I felt the lady at the front desk who waited on us was uncaring, and lacked professionalism when dealing with customers. Tried also talking to the manager on duty, and his response was; "we had other options". If I had to stay any longer than two nights at this hotel we would have gladly moved. A few other things I noticed was: no meat served with breakfast, needed room key to get access to floors, but the stairways weren't locked. I think this hotel has potentiaI, but at this time I would suggest if you have other options, consider them before staying at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r292079601-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292079601</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>This was convenient to where we needed to be. That was it.</t>
+  </si>
+  <si>
+    <t>While visiting friends for a memorial service, we chose this location for its convenience. The staff wasn't the friendliest and was not all that enthused to be of any help. The furniture in the lobby was stained and dirty. Our room wasn't the cleanest, the furniture was old and beaten, the pillows were lumpy and flat, and the air conditioner did not work well. The air conditioner in the hallway did not work the entire week we were there. We chose not to eat any food in the hotel because of how dirty it was. This hotel will definitely not be revisited.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Erin F, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>While visiting friends for a memorial service, we chose this location for its convenience. The staff wasn't the friendliest and was not all that enthused to be of any help. The furniture in the lobby was stained and dirty. Our room wasn't the cleanest, the furniture was old and beaten, the pillows were lumpy and flat, and the air conditioner did not work well. The air conditioner in the hallway did not work the entire week we were there. We chose not to eat any food in the hotel because of how dirty it was. This hotel will definitely not be revisited.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r286789911-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286789911</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Mold and Mildew were just a few of the disgusting things at this hotel</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel over the fourth of July weekend and we were very unhappy with it.  Our room had mold and mildew in it.  The comforter had blood stains on it and the air conditioner was letting out humid air.  Breakfast area was a joke.  They put the plates in the middle of a small line, so people had to constantly excuse themselves to the other people in line to grab a plate and utensils.  They only had one hot serving carrier and with it only being one, the food was gone within minutes and it was taking them forever to refill it.  The two women working the breakfast area were rude as hell, and one of them didin't even speak English and was walking around giving everyone dirty looks and attitude.  On our last day there, my mother wasn't feeling well and didn't go down for breakfast, which was from 7-10.  At around 11, she needed to take her meds, but needed something in her stomach.  I told her to go check to see if there was anything left in the breakfast area.  There were indeed muffins.  She went to grab a couple of them and after she went for the second one, the lady working there, grabbed her by the hand to stop her from grabbing another one and said "no, you are only allowed to have one".  First of all, you DO...My family and I stayed at this hotel over the fourth of July weekend and we were very unhappy with it.  Our room had mold and mildew in it.  The comforter had blood stains on it and the air conditioner was letting out humid air.  Breakfast area was a joke.  They put the plates in the middle of a small line, so people had to constantly excuse themselves to the other people in line to grab a plate and utensils.  They only had one hot serving carrier and with it only being one, the food was gone within minutes and it was taking them forever to refill it.  The two women working the breakfast area were rude as hell, and one of them didin't even speak English and was walking around giving everyone dirty looks and attitude.  On our last day there, my mother wasn't feeling well and didn't go down for breakfast, which was from 7-10.  At around 11, she needed to take her meds, but needed something in her stomach.  I told her to go check to see if there was anything left in the breakfast area.  There were indeed muffins.  She went to grab a couple of them and after she went for the second one, the lady working there, grabbed her by the hand to stop her from grabbing another one and said "no, you are only allowed to have one".  First of all, you DO NOT LAY A HAND on anybody and second of all, if they didn't want her eating, they should have just told her.  I will NEVER stay at this hotel again and I will be complaining to the better business bureau about them.  DO NOT STAY AT THIS HOTEL, it's disgusting!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Al M, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2015</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel over the fourth of July weekend and we were very unhappy with it.  Our room had mold and mildew in it.  The comforter had blood stains on it and the air conditioner was letting out humid air.  Breakfast area was a joke.  They put the plates in the middle of a small line, so people had to constantly excuse themselves to the other people in line to grab a plate and utensils.  They only had one hot serving carrier and with it only being one, the food was gone within minutes and it was taking them forever to refill it.  The two women working the breakfast area were rude as hell, and one of them didin't even speak English and was walking around giving everyone dirty looks and attitude.  On our last day there, my mother wasn't feeling well and didn't go down for breakfast, which was from 7-10.  At around 11, she needed to take her meds, but needed something in her stomach.  I told her to go check to see if there was anything left in the breakfast area.  There were indeed muffins.  She went to grab a couple of them and after she went for the second one, the lady working there, grabbed her by the hand to stop her from grabbing another one and said "no, you are only allowed to have one".  First of all, you DO...My family and I stayed at this hotel over the fourth of July weekend and we were very unhappy with it.  Our room had mold and mildew in it.  The comforter had blood stains on it and the air conditioner was letting out humid air.  Breakfast area was a joke.  They put the plates in the middle of a small line, so people had to constantly excuse themselves to the other people in line to grab a plate and utensils.  They only had one hot serving carrier and with it only being one, the food was gone within minutes and it was taking them forever to refill it.  The two women working the breakfast area were rude as hell, and one of them didin't even speak English and was walking around giving everyone dirty looks and attitude.  On our last day there, my mother wasn't feeling well and didn't go down for breakfast, which was from 7-10.  At around 11, she needed to take her meds, but needed something in her stomach.  I told her to go check to see if there was anything left in the breakfast area.  There were indeed muffins.  She went to grab a couple of them and after she went for the second one, the lady working there, grabbed her by the hand to stop her from grabbing another one and said "no, you are only allowed to have one".  First of all, you DO NOT LAY A HAND on anybody and second of all, if they didn't want her eating, they should have just told her.  I will NEVER stay at this hotel again and I will be complaining to the better business bureau about them.  DO NOT STAY AT THIS HOTEL, it's disgusting!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r285680801-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>285680801</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Mold and mldew</t>
+  </si>
+  <si>
+    <t>My daughter works for quality inn hotel in ames, iowa. My daughter and i travled from Iowa to Houston by car(about a 15 hour drive). Our reservation was to che k in on July 2nd and checking out on July 4th. My daughter being a employee of the choice privaleges hotels does have perks when we travel. They offer to employees a friends and family rate when one travles. When we arrived in houston since it was around 9a.m. in the morning they only had one room available(check in was not until 3p.m.)We asked if any way possiable could we get into the one room and just get our other room later in the day since we were so exhausted (15 hour drive). They went ahead and gave us a king room on the 5th floor. The moment that we openef the door to the room i knew that either one of us were not going to stay there. My daughters mouth dropped as well as mine. I could not believe what i saw as well as the smell of mold, mildew, musty. My daughter is 20 years old and does not like to make a scene especially since she works for the chain of such respected hotels  The smell was unbelievable. The carpwt throught the room had cigarette burns all throughout the room. The water when my daughter turnex it on came out rusty and murky. I immediately told...My daughter works for quality inn hotel in ames, iowa. My daughter and i travled from Iowa to Houston by car(about a 15 hour drive). Our reservation was to che k in on July 2nd and checking out on July 4th. My daughter being a employee of the choice privaleges hotels does have perks when we travel. They offer to employees a friends and family rate when one travles. When we arrived in houston since it was around 9a.m. in the morning they only had one room available(check in was not until 3p.m.)We asked if any way possiable could we get into the one room and just get our other room later in the day since we were so exhausted (15 hour drive). They went ahead and gave us a king room on the 5th floor. The moment that we openef the door to the room i knew that either one of us were not going to stay there. My daughters mouth dropped as well as mine. I could not believe what i saw as well as the smell of mold, mildew, musty. My daughter is 20 years old and does not like to make a scene especially since she works for the chain of such respected hotels  The smell was unbelievable. The carpwt throught the room had cigarette burns all throughout the room. The water when my daughter turnex it on came out rusty and murky. I immediately told ny daughter that it was very strong smell of mild and must. There were on the wall for pictures to hang but no pictures on the wall. The room was just disgusting. I told my daughter that we were not in no way stay there. I believe that my daughter was very let down but her being the person she is we were going to get thru these 2 nights there and go back home to iowa. I told my daughter that this is not acceptable and we were not staying there. I went downstairs to front desk and said we were not sleeping in there and we needed a different room. The front desk reminded me of that they did us a favor and let us in a room early. I do understand and appreciate that but no matter what we are paying customers and that is not acceptable. I insisted that they give us a different room(once available after 3p.m.)The front desk seemed that they did not want to do that but i am a very persistant person(and we were going to get a clean and quality room). After i spoke to the head housekeeper she told me that it would be taken care of once there were other rooms available.(after housekeepers clean the check out rooms). Than going to on to the morning dinning area.  There were only about 8 or 9 breakfast tables and maybe 50 people in the dinning area and not have seating I know for myself i was standing with my plate in my hand waiting to sit down. People were even sitting in the sofas in the entry way of the hotel.  Breakfast on the other hand was awful. The cleanliness and tables bwing clean when one guest would leave so another could sit down and eat was not happening niether. Staff could not keep up with being able to replenish food for the customers.(keep in mind this happened all within 2 hoyrs of checking in). They ran out of food on most items and once gone that was it.....My daughter went to buy food for her and her boyfriend becuase it really is not a hot complimentry breakfast. I than asked to spaek to the manager and asked him to come to the room so he could be able to understand what iwas saying. He proceeded to acompany me to the room. He said lthat he thought thought every thing in the room seemed fine to him. Well i really dont know how he can say that the room was fine(it was disgusting!!!!!! Me and my daughter would not even take our shoes off to walk on the carpet in the room!!! I tild my daughter that i was going to contact choice hotels. We left wensday morning and when we came back wensday night around11p.m we came back and they gave us a different room. We were so exhausted from a very long ride in the car we realkt needed to sleep. After my daughter got setteld into her room i went to mine but before that took a mini cooler to get ice out of 2nđ floor ice machine and than machine jammed. Called down the staff on duty and very rude. I told them that this is the worst hotel that i have ever been at(and i teavel a lot)Her response to me was "oh, ok"!!! I was flabbergasted and that i was going to complain about the whole experiance. On saturday july 4th got up very earl to eat breakfast before checking out to leave back for iowa and again they ran out of food and we were able to get some cereal and milk and then we wound up going to dennys restaurant to get food and to have a decent breakfast. I dont understand how that hotel stays busy more less alone in business. It was the worst experiance. I never stay at super 8 hotels but i even think that or a motel 6 would have been beter. Even 2 out of 3 housekeepers thatcwirk there told me that even though they do there best to keep things clean that it is a very dirty place. I go all over the country,california, utah, colorado, arizona, las vegas, georgia; florida, batton rouge, illinois, iowa and believe me this was worse that the hotels that i have stayed in mexico. Would never recommend for anyone's stay and i think when people book this hotel that they are very misinformed of the conditions.MoreShow less</t>
+  </si>
+  <si>
+    <t>Al M, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>My daughter works for quality inn hotel in ames, iowa. My daughter and i travled from Iowa to Houston by car(about a 15 hour drive). Our reservation was to che k in on July 2nd and checking out on July 4th. My daughter being a employee of the choice privaleges hotels does have perks when we travel. They offer to employees a friends and family rate when one travles. When we arrived in houston since it was around 9a.m. in the morning they only had one room available(check in was not until 3p.m.)We asked if any way possiable could we get into the one room and just get our other room later in the day since we were so exhausted (15 hour drive). They went ahead and gave us a king room on the 5th floor. The moment that we openef the door to the room i knew that either one of us were not going to stay there. My daughters mouth dropped as well as mine. I could not believe what i saw as well as the smell of mold, mildew, musty. My daughter is 20 years old and does not like to make a scene especially since she works for the chain of such respected hotels  The smell was unbelievable. The carpwt throught the room had cigarette burns all throughout the room. The water when my daughter turnex it on came out rusty and murky. I immediately told...My daughter works for quality inn hotel in ames, iowa. My daughter and i travled from Iowa to Houston by car(about a 15 hour drive). Our reservation was to che k in on July 2nd and checking out on July 4th. My daughter being a employee of the choice privaleges hotels does have perks when we travel. They offer to employees a friends and family rate when one travles. When we arrived in houston since it was around 9a.m. in the morning they only had one room available(check in was not until 3p.m.)We asked if any way possiable could we get into the one room and just get our other room later in the day since we were so exhausted (15 hour drive). They went ahead and gave us a king room on the 5th floor. The moment that we openef the door to the room i knew that either one of us were not going to stay there. My daughters mouth dropped as well as mine. I could not believe what i saw as well as the smell of mold, mildew, musty. My daughter is 20 years old and does not like to make a scene especially since she works for the chain of such respected hotels  The smell was unbelievable. The carpwt throught the room had cigarette burns all throughout the room. The water when my daughter turnex it on came out rusty and murky. I immediately told ny daughter that it was very strong smell of mild and must. There were on the wall for pictures to hang but no pictures on the wall. The room was just disgusting. I told my daughter that we were not in no way stay there. I believe that my daughter was very let down but her being the person she is we were going to get thru these 2 nights there and go back home to iowa. I told my daughter that this is not acceptable and we were not staying there. I went downstairs to front desk and said we were not sleeping in there and we needed a different room. The front desk reminded me of that they did us a favor and let us in a room early. I do understand and appreciate that but no matter what we are paying customers and that is not acceptable. I insisted that they give us a different room(once available after 3p.m.)The front desk seemed that they did not want to do that but i am a very persistant person(and we were going to get a clean and quality room). After i spoke to the head housekeeper she told me that it would be taken care of once there were other rooms available.(after housekeepers clean the check out rooms). Than going to on to the morning dinning area.  There were only about 8 or 9 breakfast tables and maybe 50 people in the dinning area and not have seating I know for myself i was standing with my plate in my hand waiting to sit down. People were even sitting in the sofas in the entry way of the hotel.  Breakfast on the other hand was awful. The cleanliness and tables bwing clean when one guest would leave so another could sit down and eat was not happening niether. Staff could not keep up with being able to replenish food for the customers.(keep in mind this happened all within 2 hoyrs of checking in). They ran out of food on most items and once gone that was it.....My daughter went to buy food for her and her boyfriend becuase it really is not a hot complimentry breakfast. I than asked to spaek to the manager and asked him to come to the room so he could be able to understand what iwas saying. He proceeded to acompany me to the room. He said lthat he thought thought every thing in the room seemed fine to him. Well i really dont know how he can say that the room was fine(it was disgusting!!!!!! Me and my daughter would not even take our shoes off to walk on the carpet in the room!!! I tild my daughter that i was going to contact choice hotels. We left wensday morning and when we came back wensday night around11p.m we came back and they gave us a different room. We were so exhausted from a very long ride in the car we realkt needed to sleep. After my daughter got setteld into her room i went to mine but before that took a mini cooler to get ice out of 2nđ floor ice machine and than machine jammed. Called down the staff on duty and very rude. I told them that this is the worst hotel that i have ever been at(and i teavel a lot)Her response to me was "oh, ok"!!! I was flabbergasted and that i was going to complain about the whole experiance. On saturday july 4th got up very earl to eat breakfast before checking out to leave back for iowa and again they ran out of food and we were able to get some cereal and milk and then we wound up going to dennys restaurant to get food and to have a decent breakfast. I dont understand how that hotel stays busy more less alone in business. It was the worst experiance. I never stay at super 8 hotels but i even think that or a motel 6 would have been beter. Even 2 out of 3 housekeepers thatcwirk there told me that even though they do there best to keep things clean that it is a very dirty place. I go all over the country,california, utah, colorado, arizona, las vegas, georgia; florida, batton rouge, illinois, iowa and believe me this was worse that the hotels that i have stayed in mexico. Would never recommend for anyone's stay and i think when people book this hotel that they are very misinformed of the conditions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r285078634-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>285078634</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>I stayed only one night at the Comfort Inn and was very satisfied.  The room was very clean, and the bed was comfortable.  One plus is that they have complimentary cookies and Kool-Aide in the lobby in case you want a snack.  The only negative comment I have is I was there for treatment at Tx Medical Center.  Most hotels give you a 10% discount if you are being treated at Tx Med. Center.  Not here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r275370849-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275370849</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>STAY AWAY</t>
+  </si>
+  <si>
+    <t>OMG! I will not stay here again and would recommend this hotel. The sheets were not changed from the previous occupants and the bedspreads were soiled, very filthy. i called the front desk and was told they would take care of it. When no one came I had to go downstairs and talk to the front desk attendant to get it resolved. Our microwave wasn’t working therefore I called the front desk and was told the maintaintence man was on his way to our room. After 30 minutes of waiting I called again and was told the same thing. After two hours of waiting I went to the front desk and the maintaintence man was standing around talking. The front desk attendance told him to come to our room but he never did. He just starts walking around doing nothing. We finally figured out why it wasnt working. There was a switch on the wall that controls the microwave but no one informed us about it. Also, when checking in the Hotel charges an extra fee per day for District taxes. I have never of it before and was never charged by any other hotel I’ve stayed at. There was no mentioned of it when I made the reservation online and could not find it on their website. Lastly, management demeanor was not too friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>OMG! I will not stay here again and would recommend this hotel. The sheets were not changed from the previous occupants and the bedspreads were soiled, very filthy. i called the front desk and was told they would take care of it. When no one came I had to go downstairs and talk to the front desk attendant to get it resolved. Our microwave wasn’t working therefore I called the front desk and was told the maintaintence man was on his way to our room. After 30 minutes of waiting I called again and was told the same thing. After two hours of waiting I went to the front desk and the maintaintence man was standing around talking. The front desk attendance told him to come to our room but he never did. He just starts walking around doing nothing. We finally figured out why it wasnt working. There was a switch on the wall that controls the microwave but no one informed us about it. Also, when checking in the Hotel charges an extra fee per day for District taxes. I have never of it before and was never charged by any other hotel I’ve stayed at. There was no mentioned of it when I made the reservation online and could not find it on their website. Lastly, management demeanor was not too friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r271875620-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271875620</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>We walked into our room (525) it smelled like urine. We immediately turned on air to help with the air circulation. I called front desk to come up. I was told it was the fact it was older hotel and staff does a good job cleaning.. Next a small spider crawls across one of beds. I decide to take bath while my husband is doing paperwork to calm down and there wasn't even enough hot water for a half a bath let alone a full. We stay at hotels all the time and I can't even believe this is tolerable from Comfort Inn</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r265036501-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265036501</t>
+  </si>
+  <si>
+    <t>04/11/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Really Nice Place to Stay </t>
+  </si>
+  <si>
+    <t>I stayed at this hotel on the way to and from Padre Island with my two children (5 and 7).  The hotel is right off of 59 and easy to get to.  The parking lot is fenced and well lit. Check in and check out were a breeze. I was surprised to find out that the guest laundry facility is free and most of the time they supply free detergent. There is a security guard wandering around and the elevator does not work without your room key witch makes it feel extra safe. The pool is nice and clean.  Breakfast is the typical Comfort Inn breakfast and the breakfast area was clean and well stocked. The rooms are clean. The only negative I commit I would leave is that some minor maintenance matters that need to be taken care of. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel on the way to and from Padre Island with my two children (5 and 7).  The hotel is right off of 59 and easy to get to.  The parking lot is fenced and well lit. Check in and check out were a breeze. I was surprised to find out that the guest laundry facility is free and most of the time they supply free detergent. There is a security guard wandering around and the elevator does not work without your room key witch makes it feel extra safe. The pool is nice and clean.  Breakfast is the typical Comfort Inn breakfast and the breakfast area was clean and well stocked. The rooms are clean. The only negative I commit I would leave is that some minor maintenance matters that need to be taken care of. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r250014691-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250014691</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>They charge you twice and don't give your money back</t>
+  </si>
+  <si>
+    <t>Don't stay in this hotel. They charged me twice for my stay in this hotel and they don't want to give my money back. I tried to show to the receptionist proves that they were making a mistake, but he was very rude and didn't want to help me.Next day, I talked with another receptionist and he just said that he couldn't do anything for me.In the system, it was very clear that they checked me in two rooms, however they were just rude and told me to complain to the booking agency.That's unacceptable!</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r241297756-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241297756</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>My favorite so far</t>
+  </si>
+  <si>
+    <t>I travel for work and was shocked when I walked in to this hotel. It was beautifully decorated. Very clean. Staff was very friendly and my room was clean, quiet, and well lit. I really enjoyed my stay here and I would definitely recommend this hotel to everyone.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r239838116-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239838116</t>
+  </si>
+  <si>
+    <t>11/14/2014</t>
+  </si>
+  <si>
+    <t>Very uneven property, more minuses than pluses</t>
+  </si>
+  <si>
+    <t>I stayed here because it was one of few name properties available anywhere near the Galleria area for my short-notice business trip.It is a standard Comfort Suites property in a marginal neighborhood, but the property felt secure enough.  The facility was in generally average-to-good shape, except for lots of important touches: the desk chair in my room had a big rip in it, bed linens quite uncomfortable, the a/c-heater unit (one of those ubiquitous under-window motel units)  was quite noisy and seemed to only operate at high speed.  (It was a saving grace that it was a cold spell in Houston, such that I could turn the thing off and the room remained comfortable overnight.)The most disappointing was the unusability of the computers in the little computer room next to the desk.  Both of them required a login name and password, and the desk staff had no idea what it was.  And while they were a little apologetic about it, they quite distressingly acted as if this is the standard situation.It is clean enough and not a bad price for Houston, but for me, if the area is sold out again, I'll book a little farther away where I can count on a better night's stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here because it was one of few name properties available anywhere near the Galleria area for my short-notice business trip.It is a standard Comfort Suites property in a marginal neighborhood, but the property felt secure enough.  The facility was in generally average-to-good shape, except for lots of important touches: the desk chair in my room had a big rip in it, bed linens quite uncomfortable, the a/c-heater unit (one of those ubiquitous under-window motel units)  was quite noisy and seemed to only operate at high speed.  (It was a saving grace that it was a cold spell in Houston, such that I could turn the thing off and the room remained comfortable overnight.)The most disappointing was the unusability of the computers in the little computer room next to the desk.  Both of them required a login name and password, and the desk staff had no idea what it was.  And while they were a little apologetic about it, they quite distressingly acted as if this is the standard situation.It is clean enough and not a bad price for Houston, but for me, if the area is sold out again, I'll book a little farther away where I can count on a better night's stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r216894874-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216894874</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Comfortable hotel</t>
+  </si>
+  <si>
+    <t>The hotel location suited us so we booked this hotel. The hotel was well kept. Rooms were spacious. Beds were comfortable and staff friendly and helpful. The breakfast was free and pretty basic but it was good value for money. The hotel had free wifi. The staff was courteous. Overall our stay was comfortable and we had no issue with anything.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Heather C, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded August 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2014</t>
+  </si>
+  <si>
+    <t>The hotel location suited us so we booked this hotel. The hotel was well kept. Rooms were spacious. Beds were comfortable and staff friendly and helpful. The breakfast was free and pretty basic but it was good value for money. The hotel had free wifi. The staff was courteous. Overall our stay was comfortable and we had no issue with anything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r195442323-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195442323</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t>stop over</t>
+  </si>
+  <si>
+    <t>The room was clean and the staff friendly, she had a line of guest but handled the guest equally and professionally so the wait was ok. The shuttle took us write to the terminal in enough time to catch our flight. I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>David C, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded March 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2014</t>
+  </si>
+  <si>
+    <t>The room was clean and the staff friendly, she had a line of guest but handled the guest equally and professionally so the wait was ok. The shuttle took us write to the terminal in enough time to catch our flight. I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r192679923-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192679923</t>
+  </si>
+  <si>
+    <t>01/31/2014</t>
+  </si>
+  <si>
+    <t>Cruise stay</t>
+  </si>
+  <si>
+    <t>I highly recommend this motel, they had exceptional service and made sure we made the port on time to board our cruise ship. They also offered a shuttle to and from the boardwalk. Thanks for taking care of us so well. The motel is only a few miles from the cruise terminal and is very close to the space center as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>I highly recommend this motel, they had exceptional service and made sure we made the port on time to board our cruise ship. They also offered a shuttle to and from the boardwalk. Thanks for taking care of us so well. The motel is only a few miles from the cruise terminal and is very close to the space center as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r156202533-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156202533</t>
+  </si>
+  <si>
+    <t>03/31/2013</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Very Loud road noise next to I-59!!!  Room was ok but would not stay here again. Staff at front desk were nice and friendly. Do not what else to say but have to keep writing for review, need to change reviews to less than 200 characters. I have said enough, thanks!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Holiday Inn H, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded April 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2013</t>
+  </si>
+  <si>
+    <t>Very Loud road noise next to I-59!!!  Room was ok but would not stay here again. Staff at front desk were nice and friendly. Do not what else to say but have to keep writing for review, need to change reviews to less than 200 characters. I have said enough, thanks!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r154578875-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154578875</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Their heart is in the right place, But</t>
+  </si>
+  <si>
+    <t>I had multiple problems in my two night stay. After the first two at check in (card key did not work after two replacements),  the manager moved my room and had staff specially help me. That night, I got a letter of apology with a statement they would take $25 off my bill for my inconvenience. Wow! I was impressed. BUT that night my toiler did not flush, next night as well ... No clog, handle just "froze". However, when I called, prompt repair (both times!). When I got my bill under the door, no $25 discount. Took 3 tries to get the discount! Rooms are clean (watch those toilets tho!) and adequate. Workout room was small, but fine. However, shower in room had multiple problems (one day no hot water for 10 minutes;another, shower would only come on half way). In sum, the manager seems very good, staff was friendly, but infrastructure (toilets, showers, card keys, etc.) are somewhat problematic. I would stay here again due to a location that's good for me and a staff that tries.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had multiple problems in my two night stay. After the first two at check in (card key did not work after two replacements),  the manager moved my room and had staff specially help me. That night, I got a letter of apology with a statement they would take $25 off my bill for my inconvenience. Wow! I was impressed. BUT that night my toiler did not flush, next night as well ... No clog, handle just "froze". However, when I called, prompt repair (both times!). When I got my bill under the door, no $25 discount. Took 3 tries to get the discount! Rooms are clean (watch those toilets tho!) and adequate. Workout room was small, but fine. However, shower in room had multiple problems (one day no hot water for 10 minutes;another, shower would only come on half way). In sum, the manager seems very good, staff was friendly, but infrastructure (toilets, showers, card keys, etc.) are somewhat problematic. I would stay here again due to a location that's good for me and a staff that tries.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r154058446-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154058446</t>
+  </si>
+  <si>
+    <t>03/08/2013</t>
+  </si>
+  <si>
+    <t>Unacceptable filth in the bed.  Loose toilet seat.</t>
+  </si>
+  <si>
+    <t>Spent one night here in February. This hotel is run down and suffering from heavy wear. It's very busy due to the location of I-59 and Hillcroft. It was easy to go places from here. Not enough light in our room. We had one king size bed, a microwave and sink and fridge. Front desk was helpful and friendly. Housekeeping and maintenance were helpful after I notified the desk of the mouse feces and urine stain in my bed &amp; the loose toilet seat.  I had taken a shower at night, put on my pajamas and slept in the bed. When I got up in the morning there were several pieces of mouse feces and a urine stain. I was utterly shocked at the filth. They took 1/8 of our bill off after this incident.   The lady handling the breakfast area took 15 minutes to replenish the hardboiled eggs after I told her that there were no hardboiled eggs in the fridge.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Spent one night here in February. This hotel is run down and suffering from heavy wear. It's very busy due to the location of I-59 and Hillcroft. It was easy to go places from here. Not enough light in our room. We had one king size bed, a microwave and sink and fridge. Front desk was helpful and friendly. Housekeeping and maintenance were helpful after I notified the desk of the mouse feces and urine stain in my bed &amp; the loose toilet seat.  I had taken a shower at night, put on my pajamas and slept in the bed. When I got up in the morning there were several pieces of mouse feces and a urine stain. I was utterly shocked at the filth. They took 1/8 of our bill off after this incident.   The lady handling the breakfast area took 15 minutes to replenish the hardboiled eggs after I told her that there were no hardboiled eggs in the fridge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r140189621-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140189621</t>
+  </si>
+  <si>
+    <t>09/13/2012</t>
+  </si>
+  <si>
+    <t>happy days in houston</t>
+  </si>
+  <si>
+    <t>you can book this holiday inn with complete confidence  our room was spot on everything was to hand  bathroom was clean and beds were excellent  i honestly wished i could have brought mine home with me excellent sleep quality , housekeeping was  very good  and complimentary breakfast was  a treat  on our next trip to houston we will definitely book again , thank you holiday inn for a comfortable stay  we will returnMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>KRUPALI_SHAH, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded September 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2012</t>
+  </si>
+  <si>
+    <t>you can book this holiday inn with complete confidence  our room was spot on everything was to hand  bathroom was clean and beds were excellent  i honestly wished i could have brought mine home with me excellent sleep quality , housekeeping was  very good  and complimentary breakfast was  a treat  on our next trip to houston we will definitely book again , thank you holiday inn for a comfortable stay  we will returnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r139728052-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139728052</t>
+  </si>
+  <si>
+    <t>09/08/2012</t>
+  </si>
+  <si>
+    <t>Great staff, not a bad location</t>
+  </si>
+  <si>
+    <t>Although outside the 610, location is not too bad, but you may be expecting a better price.Be sure to get your money worth with the points system and I always ask how much for an upgrade - sometimes it is free :)Staff is great and very willing to help you whether you're looking for a good restaurant or just directions.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Although outside the 610, location is not too bad, but you may be expecting a better price.Be sure to get your money worth with the points system and I always ask how much for an upgrade - sometimes it is free :)Staff is great and very willing to help you whether you're looking for a good restaurant or just directions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r135059049-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135059049</t>
+  </si>
+  <si>
+    <t>07/22/2012</t>
+  </si>
+  <si>
+    <t>I am impress with the customer service</t>
+  </si>
+  <si>
+    <t>The general manager and her staff was very helpful when i asked them to resolved my room issue.  She and her staff didn't give me excuses. They just fixed the problem.  But that's not all.  There are hundreds of guests at this Holiday Inn hotel, but when I met the general manager in the hotel lobby, she remember who i am. I was really, really impressed with this!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r129375824-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129375824</t>
+  </si>
+  <si>
+    <t>05/04/2012</t>
+  </si>
+  <si>
+    <t>Unsafe!</t>
+  </si>
+  <si>
+    <t>I have stayed in many HIE and this is the first time I feel unsafe.The cleanliness and condition of the room is about the same as other HIE. However the big problem is that the door lock was faulty and it can be opened from outside without needing a key. When I was inside the room, the only security I have is the latch. When I'm not in the room, there's no way to lock the door and anyone could open the door from outside.Made a complain and the problem was fixed, but only for a day. It was faulty again on the following day. A second complain was made but nothing was done when I came back to my room in the evening. Check you room door when you check in and insist on changing another room if you have the same problem. Other than the above problem, this HIE is quite ok... KFC and Denny's are located in short walking distance, just across the street. There's a convenience stall at the Shell petrol station. USD35 taxi from the Galleria. No complimentary of bottle drinking water. WiFi was free and OK. Self service coin base laundry and dryer. Clean and comfortable room... JUST NOT SAFE WITH A FAULTY LOCK!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded June 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed in many HIE and this is the first time I feel unsafe.The cleanliness and condition of the room is about the same as other HIE. However the big problem is that the door lock was faulty and it can be opened from outside without needing a key. When I was inside the room, the only security I have is the latch. When I'm not in the room, there's no way to lock the door and anyone could open the door from outside.Made a complain and the problem was fixed, but only for a day. It was faulty again on the following day. A second complain was made but nothing was done when I came back to my room in the evening. Check you room door when you check in and insist on changing another room if you have the same problem. Other than the above problem, this HIE is quite ok... KFC and Denny's are located in short walking distance, just across the street. There's a convenience stall at the Shell petrol station. USD35 taxi from the Galleria. No complimentary of bottle drinking water. WiFi was free and OK. Self service coin base laundry and dryer. Clean and comfortable room... JUST NOT SAFE WITH A FAULTY LOCK!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r126834817-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126834817</t>
+  </si>
+  <si>
+    <t>03/28/2012</t>
+  </si>
+  <si>
+    <t>The Best Holiday Inn rate in the Houston area...and still close to everything</t>
+  </si>
+  <si>
+    <t>This Holiday Inn property features the best rates of all the IHG hotels in the Houston area.  It's still close enought to down town to be convienient.  The hotel is older but has such a good remodel I was fooled into thinking it was a newer hotel.  I'm biased toward Holiday Inn's, so I will judge this one based only on others:ProsUpdated rooms are really pleasantUpscale lobby spacesWonderful complimentary breakfast (closes at 9:30)Fenced parking lotCaring owner/managerConsVagrants freequent the gas station across the streetSouthside means farther from the airportBetter rates means if books up quickly</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r125254527-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125254527</t>
+  </si>
+  <si>
+    <t>02/26/2012</t>
+  </si>
+  <si>
+    <t>Service Great, Room Good</t>
+  </si>
+  <si>
+    <t>I was rather pleased with the armoire, it gave the room more space when a closet would have stolen square-footage. It was a cool part of winter and we didn't use the AC unit. The main thing I noticed is that the smell of the public rooms downstairs as well as the hallway outside our room and inside the room were pleasant smells. All too often, along the Gulf coast, I find the hotel rooms are stuffy, moldy-smelling, and/or just have yucky smells.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r120191928-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120191928</t>
+  </si>
+  <si>
+    <t>11/05/2011</t>
+  </si>
+  <si>
+    <t>Mixed bag</t>
+  </si>
+  <si>
+    <t>You get what you pay for...
+The rooms are clean and of good size. The breakfast if adequate and prepared hygienically. The people here are always friendly and courteous but I personally hardly ever have problems with rudeness wherever I go. I guess it's about communication?
+When I got into the room it was a little musty. This I think is from the airco. The airco is noisy but at this time of year it's not needed. Turning off the aico solved the problem. One other slight downside is the beds are soft. I like a hard mattress. At least there was a choice of pillows.
+For the business traveller - the wifi is pretty good. It's fast, free and stable.
+The price was fine for this level of hotel - in fact very reasonable.
+What isn't good here? The neighbourhood. It's not really safe outside at night. There is no bar and as the only way to get around here is by car or cab then best to factor that into your stay.
+I see a few negative comments about the gym. There are a couple of treadmills and a cross trainer. You could say that this is not a lot. I'd be more tempted to say "you get what you pay for".
+All in all pretty standard and adequate.
+Would I stay here again? Yes - it's very convenient for where I need to be and as I...You get what you pay for...The rooms are clean and of good size. The breakfast if adequate and prepared hygienically. The people here are always friendly and courteous but I personally hardly ever have problems with rudeness wherever I go. I guess it's about communication?When I got into the room it was a little musty. This I think is from the airco. The airco is noisy but at this time of year it's not needed. Turning off the aico solved the problem. One other slight downside is the beds are soft. I like a hard mattress. At least there was a choice of pillows.For the business traveller - the wifi is pretty good. It's fast, free and stable.The price was fine for this level of hotel - in fact very reasonable.What isn't good here? The neighbourhood. It's not really safe outside at night. There is no bar and as the only way to get around here is by car or cab then best to factor that into your stay.I see a few negative comments about the gym. There are a couple of treadmills and a cross trainer. You could say that this is not a lot. I'd be more tempted to say "you get what you pay for".All in all pretty standard and adequate.Would I stay here again? Yes - it's very convenient for where I need to be and as I normally don't have a car then it's a no brainer.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>You get what you pay for...
+The rooms are clean and of good size. The breakfast if adequate and prepared hygienically. The people here are always friendly and courteous but I personally hardly ever have problems with rudeness wherever I go. I guess it's about communication?
+When I got into the room it was a little musty. This I think is from the airco. The airco is noisy but at this time of year it's not needed. Turning off the aico solved the problem. One other slight downside is the beds are soft. I like a hard mattress. At least there was a choice of pillows.
+For the business traveller - the wifi is pretty good. It's fast, free and stable.
+The price was fine for this level of hotel - in fact very reasonable.
+What isn't good here? The neighbourhood. It's not really safe outside at night. There is no bar and as the only way to get around here is by car or cab then best to factor that into your stay.
+I see a few negative comments about the gym. There are a couple of treadmills and a cross trainer. You could say that this is not a lot. I'd be more tempted to say "you get what you pay for".
+All in all pretty standard and adequate.
+Would I stay here again? Yes - it's very convenient for where I need to be and as I...You get what you pay for...The rooms are clean and of good size. The breakfast if adequate and prepared hygienically. The people here are always friendly and courteous but I personally hardly ever have problems with rudeness wherever I go. I guess it's about communication?When I got into the room it was a little musty. This I think is from the airco. The airco is noisy but at this time of year it's not needed. Turning off the aico solved the problem. One other slight downside is the beds are soft. I like a hard mattress. At least there was a choice of pillows.For the business traveller - the wifi is pretty good. It's fast, free and stable.The price was fine for this level of hotel - in fact very reasonable.What isn't good here? The neighbourhood. It's not really safe outside at night. There is no bar and as the only way to get around here is by car or cab then best to factor that into your stay.I see a few negative comments about the gym. There are a couple of treadmills and a cross trainer. You could say that this is not a lot. I'd be more tempted to say "you get what you pay for".All in all pretty standard and adequate.Would I stay here again? Yes - it's very convenient for where I need to be and as I normally don't have a car then it's a no brainer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r114661324-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114661324</t>
+  </si>
+  <si>
+    <t>06/22/2011</t>
+  </si>
+  <si>
+    <t>Very Bad experience "UNSAFE hotel"</t>
+  </si>
+  <si>
+    <t>We stayed there1- our van robbed the glass broken, and got the GPS stolen inside hotel parking behind the fence.2- Security guy warned us to lock the doors because some people sneak in and get inside rooms to rob it.... what a safe hotel !!!3- Than manager was a big mouth she never did anything later as she promised4- The funniest part was the white SUV that parked overnight by the "Fire Lane" in front of the hotel main entrance because its owner was scared to be robbed again since he had incident in this hotel before.Think twice before you check-in</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r114399904-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114399904</t>
+  </si>
+  <si>
+    <t>06/19/2011</t>
+  </si>
+  <si>
+    <t>Mold in room made nauceous</t>
+  </si>
+  <si>
+    <t>We stayed here as part of a business trip and was not pleased with the room which was musty and smelled of mold.  I understand Houston is humid, but the reason this room was bad was throughout the night the air conditioner squelled.  When reported to the front desk they said management wasn't availabe at the hotel that day and they would let them know.  Never contacted by management even though my husband stays often with this chain for business.  The staff were pleasant and the breakfast was good, however, I heard another guest complain that the pool was green!  The traffic noise along the highway was loud as well.  The parking lot was well lit and security cameras are in place according to the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>We stayed here as part of a business trip and was not pleased with the room which was musty and smelled of mold.  I understand Houston is humid, but the reason this room was bad was throughout the night the air conditioner squelled.  When reported to the front desk they said management wasn't availabe at the hotel that day and they would let them know.  Never contacted by management even though my husband stays often with this chain for business.  The staff were pleasant and the breakfast was good, however, I heard another guest complain that the pool was green!  The traffic noise along the highway was loud as well.  The parking lot was well lit and security cameras are in place according to the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r96930906-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>96930906</t>
+  </si>
+  <si>
+    <t>02/16/2011</t>
+  </si>
+  <si>
+    <t>A homeless with a booked room from this hotel</t>
+  </si>
+  <si>
+    <t>I booked this hotel through Hotels.com, I received confirmation numbers from both Hotels.com and Holiday Inn Express.Tonight, I travelled long way from Houston International Airport to this hotel and hotel told me that all rooms have been over-sold. They didn't say sorry because it is common practice. Instead of giving me a booked room, receptionist gave me a sheet for driving direction to Quality Inn &amp; Suites, that is 20.45 miles from this hotel.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r55101812-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>55101812</t>
+  </si>
+  <si>
+    <t>02/03/2010</t>
+  </si>
+  <si>
+    <t>Pleasant overnight visit</t>
+  </si>
+  <si>
+    <t>Booked hotel through Expedia for $56 per night.  I chose this hotel based on its close proximity to the PROMETRIC TEST CENTER on Harwin (less than 5 minute drive).  Room was clean and comfortable.  Also, the hotel appeared to be recently renovated. No issues with water pressure or hot water in the morning.  Breakfast started at 7:00 am.   My test started at 8:00 am.  I had plenty of time to have breakfast and drive to the test site. There was a minor issue with checkout because I wasn't checked in properly.   This was resolved with no problem.Perfect hotel for my overnight stay.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r53199778-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>53199778</t>
+  </si>
+  <si>
+    <t>01/11/2010</t>
+  </si>
+  <si>
+    <t>Ok, but very rude breakfast server</t>
+  </si>
+  <si>
+    <t>The room was ok, nothing exceptional, fairly clean, room was very small (ok for 2). Breakfast selection is also ok, cereal, beverages, breads and rolls, typical. The only problem was the lady taking care of the breakfast area... very rude, not only to me but to others. The orange juice had ran out, all they had was apple juice (both on the same fountain machine), there was no sign and I didn't know it had ran out, so I try to pour orange juice and there she comes screaming (I'm not exaggerating) that there wasn't anymore orange juice. I was so taken aback that I froze, so she kept screaming: "no orange juice." She did that to a couple more people. Then there was a man with his little daughter and he asked her for something his daughter wanted, she was again very rude and loud: "all we have is here." I don't know if she was having a bad day or if that's just how she is... either way the guests shouldn't have to put up with it. That was a horrible way to start the day.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>The room was ok, nothing exceptional, fairly clean, room was very small (ok for 2). Breakfast selection is also ok, cereal, beverages, breads and rolls, typical. The only problem was the lady taking care of the breakfast area... very rude, not only to me but to others. The orange juice had ran out, all they had was apple juice (both on the same fountain machine), there was no sign and I didn't know it had ran out, so I try to pour orange juice and there she comes screaming (I'm not exaggerating) that there wasn't anymore orange juice. I was so taken aback that I froze, so she kept screaming: "no orange juice." She did that to a couple more people. Then there was a man with his little daughter and he asked her for something his daughter wanted, she was again very rude and loud: "all we have is here." I don't know if she was having a bad day or if that's just how she is... either way the guests shouldn't have to put up with it. That was a horrible way to start the day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r7968210-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>7968210</t>
+  </si>
+  <si>
+    <t>06/21/2007</t>
+  </si>
+  <si>
+    <t>Nice basic hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel 4 nights (June 16 thru June 20) at $84/ night for a non smoking, one king bed, standard room.  We booked the room at the hotel web site,  with AAA discount and prepaid rate.  The hotel is in a busy intersection of Highway 59 South/ Southwest Freeway and Hilcroft Avenue.  This is a good location to various shopping and restaurants.  Hilcroft Avenue is particularly dominated with Indian, Persian, Middle Easterns foods and shops.  We had good food (chicken and beef koobideh) at Persian Grill.  At the intersection of Southwest Freeway and Bellaire, along Bellaire, there are a lot of Asian restaurants (Vietnamese, Chinese, Korean, Japanese... you name it).  If you like Cajun crawfish, the best place is inside Hong Kong Market food court.  Landry's seafood house is another excellent restaurant to try.  Hotel has a nice landscaping, enough parking spaces when we came back late around 10pm.  There is security guard walking aroung at night. Hotel requires key card entry to access elevator and breakfast area.  Public restrooms is very clean.  What we don't like is the room size, a bit on the small size, especially the bath room.  It is tiny, no place to put toiletry items around the sink.  No wireless internet connect, we have to get a cable from the front desk to connect.  Besides that, connection is very good.  Breakfast area is quite small with only a couple tables placing very...We stayed at this hotel 4 nights (June 16 thru June 20) at $84/ night for a non smoking, one king bed, standard room.  We booked the room at the hotel web site,  with AAA discount and prepaid rate.  The hotel is in a busy intersection of Highway 59 South/ Southwest Freeway and Hilcroft Avenue.  This is a good location to various shopping and restaurants.  Hilcroft Avenue is particularly dominated with Indian, Persian, Middle Easterns foods and shops.  We had good food (chicken and beef koobideh) at Persian Grill.  At the intersection of Southwest Freeway and Bellaire, along Bellaire, there are a lot of Asian restaurants (Vietnamese, Chinese, Korean, Japanese... you name it).  If you like Cajun crawfish, the best place is inside Hong Kong Market food court.  Landry's seafood house is another excellent restaurant to try.  Hotel has a nice landscaping, enough parking spaces when we came back late around 10pm.  There is security guard walking aroung at night. Hotel requires key card entry to access elevator and breakfast area.  Public restrooms is very clean.  What we don't like is the room size, a bit on the small size, especially the bath room.  It is tiny, no place to put toiletry items around the sink.  No wireless internet connect, we have to get a cable from the front desk to connect.  Besides that, connection is very good.  Breakfast area is quite small with only a couple tables placing very close to each other.  Breakfast items are very basic and not many selections.  Quite boring for usMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel 4 nights (June 16 thru June 20) at $84/ night for a non smoking, one king bed, standard room.  We booked the room at the hotel web site,  with AAA discount and prepaid rate.  The hotel is in a busy intersection of Highway 59 South/ Southwest Freeway and Hilcroft Avenue.  This is a good location to various shopping and restaurants.  Hilcroft Avenue is particularly dominated with Indian, Persian, Middle Easterns foods and shops.  We had good food (chicken and beef koobideh) at Persian Grill.  At the intersection of Southwest Freeway and Bellaire, along Bellaire, there are a lot of Asian restaurants (Vietnamese, Chinese, Korean, Japanese... you name it).  If you like Cajun crawfish, the best place is inside Hong Kong Market food court.  Landry's seafood house is another excellent restaurant to try.  Hotel has a nice landscaping, enough parking spaces when we came back late around 10pm.  There is security guard walking aroung at night. Hotel requires key card entry to access elevator and breakfast area.  Public restrooms is very clean.  What we don't like is the room size, a bit on the small size, especially the bath room.  It is tiny, no place to put toiletry items around the sink.  No wireless internet connect, we have to get a cable from the front desk to connect.  Besides that, connection is very good.  Breakfast area is quite small with only a couple tables placing very...We stayed at this hotel 4 nights (June 16 thru June 20) at $84/ night for a non smoking, one king bed, standard room.  We booked the room at the hotel web site,  with AAA discount and prepaid rate.  The hotel is in a busy intersection of Highway 59 South/ Southwest Freeway and Hilcroft Avenue.  This is a good location to various shopping and restaurants.  Hilcroft Avenue is particularly dominated with Indian, Persian, Middle Easterns foods and shops.  We had good food (chicken and beef koobideh) at Persian Grill.  At the intersection of Southwest Freeway and Bellaire, along Bellaire, there are a lot of Asian restaurants (Vietnamese, Chinese, Korean, Japanese... you name it).  If you like Cajun crawfish, the best place is inside Hong Kong Market food court.  Landry's seafood house is another excellent restaurant to try.  Hotel has a nice landscaping, enough parking spaces when we came back late around 10pm.  There is security guard walking aroung at night. Hotel requires key card entry to access elevator and breakfast area.  Public restrooms is very clean.  What we don't like is the room size, a bit on the small size, especially the bath room.  It is tiny, no place to put toiletry items around the sink.  No wireless internet connect, we have to get a cable from the front desk to connect.  Besides that, connection is very good.  Breakfast area is quite small with only a couple tables placing very close to each other.  Breakfast items are very basic and not many selections.  Quite boring for usMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r6353097-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6353097</t>
+  </si>
+  <si>
+    <t>12/08/2006</t>
+  </si>
+  <si>
+    <t>Just fine</t>
+  </si>
+  <si>
+    <t>Had a very pleasant stay here. My room was spotless, the bed was comfortable, the bathroom was clean, plenty of towels and the shower worked fine. The nice desk clerk gave me a cable for wired ethernet in the room, but I was able to pick up a wireless signal from the lobby. The included breakfast was fine but a little on the spartan side. For the rate I thought it was an excellent value. I'd definitely stay here again.</t>
+  </si>
+  <si>
+    <t>December 2006</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1766,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1798,3651 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>115</v>
+      </c>
+      <c r="X13" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>115</v>
+      </c>
+      <c r="X14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>115</v>
+      </c>
+      <c r="X15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>161</v>
+      </c>
+      <c r="X18" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>175</v>
+      </c>
+      <c r="X20" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>183</v>
+      </c>
+      <c r="O21" t="s">
+        <v>123</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>184</v>
+      </c>
+      <c r="X21" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s">
+        <v>191</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>192</v>
+      </c>
+      <c r="O22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>193</v>
+      </c>
+      <c r="X22" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s">
+        <v>200</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>192</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X23" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" t="s">
+        <v>206</v>
+      </c>
+      <c r="K24" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" t="s">
+        <v>208</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>209</v>
+      </c>
+      <c r="O24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>210</v>
+      </c>
+      <c r="X24" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>201</v>
+      </c>
+      <c r="X25" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>220</v>
+      </c>
+      <c r="J26" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" t="s">
+        <v>223</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>224</v>
+      </c>
+      <c r="O26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>225</v>
+      </c>
+      <c r="X26" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>229</v>
+      </c>
+      <c r="J27" t="s">
+        <v>230</v>
+      </c>
+      <c r="K27" t="s">
+        <v>231</v>
+      </c>
+      <c r="L27" t="s">
+        <v>232</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>224</v>
+      </c>
+      <c r="O27" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>233</v>
+      </c>
+      <c r="X27" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>237</v>
+      </c>
+      <c r="J28" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28" t="s">
+        <v>240</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>241</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>242</v>
+      </c>
+      <c r="X28" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>246</v>
+      </c>
+      <c r="J29" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" t="s">
+        <v>248</v>
+      </c>
+      <c r="L29" t="s">
+        <v>249</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>224</v>
+      </c>
+      <c r="O29" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>250</v>
+      </c>
+      <c r="X29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>224</v>
+      </c>
+      <c r="O30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>258</v>
+      </c>
+      <c r="X30" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>262</v>
+      </c>
+      <c r="J31" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" t="s">
+        <v>268</v>
+      </c>
+      <c r="K32" t="s">
+        <v>269</v>
+      </c>
+      <c r="L32" t="s">
+        <v>270</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>271</v>
+      </c>
+      <c r="O32" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>273</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>274</v>
+      </c>
+      <c r="J33" t="s">
+        <v>275</v>
+      </c>
+      <c r="K33" t="s">
+        <v>276</v>
+      </c>
+      <c r="L33" t="s">
+        <v>277</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>271</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>279</v>
+      </c>
+      <c r="J34" t="s">
+        <v>280</v>
+      </c>
+      <c r="K34" t="s">
+        <v>281</v>
+      </c>
+      <c r="L34" t="s">
+        <v>282</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>283</v>
+      </c>
+      <c r="O34" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>285</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>286</v>
+      </c>
+      <c r="J35" t="s">
+        <v>287</v>
+      </c>
+      <c r="K35" t="s">
+        <v>288</v>
+      </c>
+      <c r="L35" t="s">
+        <v>289</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>290</v>
+      </c>
+      <c r="O35" t="s">
+        <v>123</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>291</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>292</v>
+      </c>
+      <c r="J36" t="s">
+        <v>293</v>
+      </c>
+      <c r="K36" t="s">
+        <v>294</v>
+      </c>
+      <c r="L36" t="s">
+        <v>295</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>296</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>297</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>298</v>
+      </c>
+      <c r="J37" t="s">
+        <v>299</v>
+      </c>
+      <c r="K37" t="s">
+        <v>300</v>
+      </c>
+      <c r="L37" t="s">
+        <v>301</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>296</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>303</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>304</v>
+      </c>
+      <c r="J38" t="s">
+        <v>305</v>
+      </c>
+      <c r="K38" t="s">
+        <v>306</v>
+      </c>
+      <c r="L38" t="s">
+        <v>307</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>308</v>
+      </c>
+      <c r="O38" t="s">
+        <v>91</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>309</v>
+      </c>
+      <c r="X38" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>313</v>
+      </c>
+      <c r="J39" t="s">
+        <v>314</v>
+      </c>
+      <c r="K39" t="s">
+        <v>315</v>
+      </c>
+      <c r="L39" t="s">
+        <v>316</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>317</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>318</v>
+      </c>
+      <c r="X39" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>321</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>322</v>
+      </c>
+      <c r="J40" t="s">
+        <v>323</v>
+      </c>
+      <c r="K40" t="s">
+        <v>324</v>
+      </c>
+      <c r="L40" t="s">
+        <v>325</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>318</v>
+      </c>
+      <c r="X40" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>328</v>
+      </c>
+      <c r="J41" t="s">
+        <v>329</v>
+      </c>
+      <c r="K41" t="s">
+        <v>330</v>
+      </c>
+      <c r="L41" t="s">
+        <v>331</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>332</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>333</v>
+      </c>
+      <c r="X41" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>336</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>337</v>
+      </c>
+      <c r="J42" t="s">
+        <v>338</v>
+      </c>
+      <c r="K42" t="s">
+        <v>339</v>
+      </c>
+      <c r="L42" t="s">
+        <v>340</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>332</v>
+      </c>
+      <c r="O42" t="s">
+        <v>123</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>333</v>
+      </c>
+      <c r="X42" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>342</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>343</v>
+      </c>
+      <c r="J43" t="s">
+        <v>344</v>
+      </c>
+      <c r="K43" t="s">
+        <v>345</v>
+      </c>
+      <c r="L43" t="s">
+        <v>346</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>347</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>348</v>
+      </c>
+      <c r="X43" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>352</v>
+      </c>
+      <c r="J44" t="s">
+        <v>353</v>
+      </c>
+      <c r="K44" t="s">
+        <v>354</v>
+      </c>
+      <c r="L44" t="s">
+        <v>355</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>356</v>
+      </c>
+      <c r="O44" t="s">
+        <v>91</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>357</v>
+      </c>
+      <c r="X44" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>360</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>361</v>
+      </c>
+      <c r="J45" t="s">
+        <v>362</v>
+      </c>
+      <c r="K45" t="s">
+        <v>363</v>
+      </c>
+      <c r="L45" t="s">
+        <v>364</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>365</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>357</v>
+      </c>
+      <c r="X45" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>367</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>368</v>
+      </c>
+      <c r="J46" t="s">
+        <v>369</v>
+      </c>
+      <c r="K46" t="s">
+        <v>370</v>
+      </c>
+      <c r="L46" t="s">
+        <v>371</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>365</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>373</v>
+      </c>
+      <c r="J47" t="s">
+        <v>374</v>
+      </c>
+      <c r="K47" t="s">
+        <v>375</v>
+      </c>
+      <c r="L47" t="s">
+        <v>376</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>377</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>378</v>
+      </c>
+      <c r="X47" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>381</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>382</v>
+      </c>
+      <c r="J48" t="s">
+        <v>383</v>
+      </c>
+      <c r="K48" t="s">
+        <v>384</v>
+      </c>
+      <c r="L48" t="s">
+        <v>385</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>386</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>387</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>388</v>
+      </c>
+      <c r="J49" t="s">
+        <v>389</v>
+      </c>
+      <c r="K49" t="s">
+        <v>390</v>
+      </c>
+      <c r="L49" t="s">
+        <v>391</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>392</v>
+      </c>
+      <c r="O49" t="s">
+        <v>65</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>393</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>394</v>
+      </c>
+      <c r="J50" t="s">
+        <v>395</v>
+      </c>
+      <c r="K50" t="s">
+        <v>396</v>
+      </c>
+      <c r="L50" t="s">
+        <v>397</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>398</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>400</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>401</v>
+      </c>
+      <c r="J51" t="s">
+        <v>402</v>
+      </c>
+      <c r="K51" t="s">
+        <v>403</v>
+      </c>
+      <c r="L51" t="s">
+        <v>404</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>405</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>406</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>407</v>
+      </c>
+      <c r="J52" t="s">
+        <v>408</v>
+      </c>
+      <c r="K52" t="s">
+        <v>409</v>
+      </c>
+      <c r="L52" t="s">
+        <v>410</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>411</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>413</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>414</v>
+      </c>
+      <c r="J53" t="s">
+        <v>415</v>
+      </c>
+      <c r="K53" t="s">
+        <v>416</v>
+      </c>
+      <c r="L53" t="s">
+        <v>417</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>418</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>419</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>420</v>
+      </c>
+      <c r="J54" t="s">
+        <v>421</v>
+      </c>
+      <c r="K54" t="s">
+        <v>422</v>
+      </c>
+      <c r="L54" t="s">
+        <v>423</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>424</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>425</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>426</v>
+      </c>
+      <c r="J55" t="s">
+        <v>427</v>
+      </c>
+      <c r="K55" t="s">
+        <v>428</v>
+      </c>
+      <c r="L55" t="s">
+        <v>429</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>430</v>
+      </c>
+      <c r="O55" t="s">
+        <v>91</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>432</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>433</v>
+      </c>
+      <c r="J56" t="s">
+        <v>434</v>
+      </c>
+      <c r="K56" t="s">
+        <v>435</v>
+      </c>
+      <c r="L56" t="s">
+        <v>436</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>437</v>
+      </c>
+      <c r="O56" t="s">
+        <v>91</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>439</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>440</v>
+      </c>
+      <c r="J57" t="s">
+        <v>441</v>
+      </c>
+      <c r="K57" t="s">
+        <v>442</v>
+      </c>
+      <c r="L57" t="s">
+        <v>443</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>444</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_105.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_105.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="700">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,84 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r609998470-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223179</t>
+  </si>
+  <si>
+    <t>609998470</t>
+  </si>
+  <si>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>Don't have a family emergency because they will NOT refund</t>
+  </si>
+  <si>
+    <t>I have been dealing with hotels for pretty much 30 years, and I have never written a negative review like this. I am so livid at this hotel's lack of assistance with me that I am driven to post a negative review. I booked this hotel over 2 weeks ago, and was happy with my selection given the distance from my event in Houston. Also, I like a free breakfast, and I have never had problems with Comfort Inns.....until now. 
+We had a family emergency that changed our plans. We are not able to travel to Houston, and I messaged the hotel 24 hours before our stay, but received no response. I booked the hotel through Orbitz, and so the day of the reservation, I called Orbitz to see if there was anything they could do to help me. 
+The lady with Orbitz contacted the hotel, and after 15 minutes on hold, she returned to inform me that the hotel would not budge on not refunding the charges. She said they would be willing to change the reservation to another night. Now, it is a Comfort Inn, it was only $59 for the night, but for goodness sakes, when there is a family emergency, most hotels are much more accommodating. Speaking of, we had reservations at Crown Plaza and they GLADLY refunded the money for our night's stay because of our family emergency.
+The Orbitz lady said that she was...I have been dealing with hotels for pretty much 30 years, and I have never written a negative review like this. I am so livid at this hotel's lack of assistance with me that I am driven to post a negative review. I booked this hotel over 2 weeks ago, and was happy with my selection given the distance from my event in Houston. Also, I like a free breakfast, and I have never had problems with Comfort Inns.....until now. We had a family emergency that changed our plans. We are not able to travel to Houston, and I messaged the hotel 24 hours before our stay, but received no response. I booked the hotel through Orbitz, and so the day of the reservation, I called Orbitz to see if there was anything they could do to help me. The lady with Orbitz contacted the hotel, and after 15 minutes on hold, she returned to inform me that the hotel would not budge on not refunding the charges. She said they would be willing to change the reservation to another night. Now, it is a Comfort Inn, it was only $59 for the night, but for goodness sakes, when there is a family emergency, most hotels are much more accommodating. Speaking of, we had reservations at Crown Plaza and they GLADLY refunded the money for our night's stay because of our family emergency.The Orbitz lady said that she was surprised, too, because hotels are usually willing to accommodate family emergencies. I asked her if I had to have a date in mind now to change our reservations to, or if they would give me a hotel credit of sorts. She said she would talk to them again and see. Twenty minutes later, she returned to me on the phone and said that the manager was still being very firm in no refund, and in fact, he decided that he would NOT allow me to choose another date because they will not be able to resell the room at this late time. Well, I can tell you, in my future trips to Houston, this hotel will be off my list of considerations. $59 is not much for a hotel, but the principle behind him not refunding my money is rediculous. Now, my other booking was through Expedia, and this one was through Orbitz. Yes, I did pay the lower price for the room because of the "no refund" but to me, there should still be some compassion when corporate people are dealing with the public. Believe me, I will be contacting Comfort Inn's home office to complain to them as well.  This hotel may be a nice property, but I will never know. Instead of working with me and even compromising on offering me another night, this hotel stood by their "policy" over having compassion for someone whose father is ill and in the hospital. Again, $59 is not much, but customer service is everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I have been dealing with hotels for pretty much 30 years, and I have never written a negative review like this. I am so livid at this hotel's lack of assistance with me that I am driven to post a negative review. I booked this hotel over 2 weeks ago, and was happy with my selection given the distance from my event in Houston. Also, I like a free breakfast, and I have never had problems with Comfort Inns.....until now. 
+We had a family emergency that changed our plans. We are not able to travel to Houston, and I messaged the hotel 24 hours before our stay, but received no response. I booked the hotel through Orbitz, and so the day of the reservation, I called Orbitz to see if there was anything they could do to help me. 
+The lady with Orbitz contacted the hotel, and after 15 minutes on hold, she returned to inform me that the hotel would not budge on not refunding the charges. She said they would be willing to change the reservation to another night. Now, it is a Comfort Inn, it was only $59 for the night, but for goodness sakes, when there is a family emergency, most hotels are much more accommodating. Speaking of, we had reservations at Crown Plaza and they GLADLY refunded the money for our night's stay because of our family emergency.
+The Orbitz lady said that she was...I have been dealing with hotels for pretty much 30 years, and I have never written a negative review like this. I am so livid at this hotel's lack of assistance with me that I am driven to post a negative review. I booked this hotel over 2 weeks ago, and was happy with my selection given the distance from my event in Houston. Also, I like a free breakfast, and I have never had problems with Comfort Inns.....until now. We had a family emergency that changed our plans. We are not able to travel to Houston, and I messaged the hotel 24 hours before our stay, but received no response. I booked the hotel through Orbitz, and so the day of the reservation, I called Orbitz to see if there was anything they could do to help me. The lady with Orbitz contacted the hotel, and after 15 minutes on hold, she returned to inform me that the hotel would not budge on not refunding the charges. She said they would be willing to change the reservation to another night. Now, it is a Comfort Inn, it was only $59 for the night, but for goodness sakes, when there is a family emergency, most hotels are much more accommodating. Speaking of, we had reservations at Crown Plaza and they GLADLY refunded the money for our night's stay because of our family emergency.The Orbitz lady said that she was surprised, too, because hotels are usually willing to accommodate family emergencies. I asked her if I had to have a date in mind now to change our reservations to, or if they would give me a hotel credit of sorts. She said she would talk to them again and see. Twenty minutes later, she returned to me on the phone and said that the manager was still being very firm in no refund, and in fact, he decided that he would NOT allow me to choose another date because they will not be able to resell the room at this late time. Well, I can tell you, in my future trips to Houston, this hotel will be off my list of considerations. $59 is not much for a hotel, but the principle behind him not refunding my money is rediculous. Now, my other booking was through Expedia, and this one was through Orbitz. Yes, I did pay the lower price for the room because of the "no refund" but to me, there should still be some compassion when corporate people are dealing with the public. Believe me, I will be contacting Comfort Inn's home office to complain to them as well.  This hotel may be a nice property, but I will never know. Instead of working with me and even compromising on offering me another night, this hotel stood by their "policy" over having compassion for someone whose father is ill and in the hospital. Again, $59 is not much, but customer service is everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r595067346-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595067346</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Over all ok</t>
+  </si>
+  <si>
+    <t>Everything was good but the moldy smell was bad in our room.  The service was very great.  Everyone was very nice and helpful. Check in was pretty fast. Like it that you have to use room key to go upstairs.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r587375096-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587375096</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Pounds stay 6/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My room had roaches visible in the room crawling near the head part of the bed so we did not get a good night sleep.  And the water only was warm late last night and just cold this morning.  I am very disappointed in the hotel, I’m sure this wasn’t something that just happened.  </t>
+  </si>
+  <si>
+    <t>June 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r584266033-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223179</t>
-  </si>
-  <si>
     <t>584266033</t>
   </si>
   <si>
@@ -213,7 +279,40 @@
     <t>Air condition was BROKen engineering CAME and replaced the unit it was late after 10pm he changed the entire unit. We were not given fresh baked cookies at checin but bottled water. Breakfast was very good.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r572345826-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572345826</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>I'm totally satisfied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My stay here was about 3 weeks waiting on my apartment to be ready. Very comfortable stay! Helpful nice staff. Very reasonably priced . The hotel is in the middle of a remodel a little dusty in the hallways. Breakfast pretty good! Overall grade A- </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r567322955-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567322955</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Friendly staff, great stay, breakfast available</t>
+  </si>
+  <si>
+    <t>The staff are great here. They are very welcoming, especially the two ladies at the front desk. I've been to this specific location about 4 times this month. I always get the suite. Breakfast is free &amp; the fitness room is excellent. No complaints on my end. I am actually a rewards holder from LA Quinta &amp; normally that's the only hotel I would stay at. THAT speaks for itself</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r554323628-Comfort_Inn_Suites-Houston_Texas.html</t>
@@ -273,6 +372,60 @@
     <t>Well I wasn't able to take pictures of this property this time around.  I was diagnosed with cancer and was having a specialist take a look at my case at MD Anderson.  This hotel is around 20 miles from MD Anderson and around a 30-40 min drive depending on traffic.  I liked location because its near downtown but still easy to park and plenty of eating/stores nearby.  The beds in the room were pretty used and firm but I slept okay.  We stayed on the 5th floor and this was much less noisy so I would recommend the upper floors.  The shower head needs some attention because the water has minerals that have clogged it up so it sprays all over the bathroom.  The shower curtain does little to no good.  Also one big pet peeve is getting towels at this property.  I asked the maids for towels and they said I needed to ask the front desk and then front desk wrote it down.  I was never contacted about new towels.  By the end of the day I told front desk 2 more times for new towels and they again forgot about them.  I finally was able to get 2 towels on a shift change between front desk personnel.  I have never had a towel experience like this.  I didn't even need maid service to the rooms; all I needed was some replacement towels since it was a 4...Well I wasn't able to take pictures of this property this time around.  I was diagnosed with cancer and was having a specialist take a look at my case at MD Anderson.  This hotel is around 20 miles from MD Anderson and around a 30-40 min drive depending on traffic.  I liked location because its near downtown but still easy to park and plenty of eating/stores nearby.  The beds in the room were pretty used and firm but I slept okay.  We stayed on the 5th floor and this was much less noisy so I would recommend the upper floors.  The shower head needs some attention because the water has minerals that have clogged it up so it sprays all over the bathroom.  The shower curtain does little to no good.  Also one big pet peeve is getting towels at this property.  I asked the maids for towels and they said I needed to ask the front desk and then front desk wrote it down.  I was never contacted about new towels.  By the end of the day I told front desk 2 more times for new towels and they again forgot about them.  I finally was able to get 2 towels on a shift change between front desk personnel.  I have never had a towel experience like this.  I didn't even need maid service to the rooms; all I needed was some replacement towels since it was a 4 day stay.  If they can get this working then the hotel would be nicer and less hectic.  I used the onsite laundry facility and it was very convenient and reasonable.  Overall not a bad stay but the towel situation was quite annoying.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r516067519-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516067519</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Great if you like bodily fluid on the bed</t>
+  </si>
+  <si>
+    <t>Staff is nice enough- they switched me over to a suite after the AC in my first room was sputtering.Unfortunately, as soon as I pulled the sheets back, I noticed a curly little black hair on the bed (and not the kind that comes from you head). That launched a major investigation, and lo and behold, I was laying on a bed drenched in bodily fluid and various oily stains. The sheets were crinkly like they had been laid in that day before I checked in. Will not be back. Asked for a refund and checked out right away. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Front D, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded August 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2017</t>
+  </si>
+  <si>
+    <t>Staff is nice enough- they switched me over to a suite after the AC in my first room was sputtering.Unfortunately, as soon as I pulled the sheets back, I noticed a curly little black hair on the bed (and not the kind that comes from you head). That launched a major investigation, and lo and behold, I was laying on a bed drenched in bodily fluid and various oily stains. The sheets were crinkly like they had been laid in that day before I checked in. Will not be back. Asked for a refund and checked out right away. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r503036857-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503036857</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Choice Privileges Rewards Member. Lovely Hotel</t>
+  </si>
+  <si>
+    <t>Spacious Executive King Suite was clean &amp; comfy. Bed was super plush and we had an extra couch in the room as well. Kitchenette in the rm was helpful. Housekeeping was on point as we requested. Breakfast was crowded and chaotic. I was unable to find anywhere to sit or eat no matter what time I came down. We greatly appreciated the free lemon water in the lobby and it was refreshing. I only saw it filled one day. =(  Front desk staff were welcoming. Breakfast staff was also super nice. Thumbs up! We will definately be staying with you again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Front D, Front Office Manager at Comfort Inn &amp; Suites, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Spacious Executive King Suite was clean &amp; comfy. Bed was super plush and we had an extra couch in the room as well. Kitchenette in the rm was helpful. Housekeeping was on point as we requested. Breakfast was crowded and chaotic. I was unable to find anywhere to sit or eat no matter what time I came down. We greatly appreciated the free lemon water in the lobby and it was refreshing. I only saw it filled one day. =(  Front desk staff were welcoming. Breakfast staff was also super nice. Thumbs up! We will definately be staying with you again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r486277509-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -291,9 +444,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Front D, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded June 21, 2017</t>
   </si>
   <si>
@@ -345,6 +495,54 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r456400173-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456400173</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Houston is a little tricky to drive through, but we called the hotel and they helped us navigate to their location.  Clean room, very nice staff!  Quiet for being close to the expressway.  Several fast food locations walkable.  Would stay here again if we were in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Front D, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Houston is a little tricky to drive through, but we called the hotel and they helped us navigate to their location.  Clean room, very nice staff!  Quiet for being close to the expressway.  Several fast food locations walkable.  Would stay here again if we were in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r438096493-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438096493</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Good hotel with lovely staff</t>
+  </si>
+  <si>
+    <t>We moved here after we had checked into and out of another very poor hotel in Houston. It was like night and day. The staff were so friendly and helpful, the rooms bright and comfortable. The breakfast was also very good, with a wider variety than we experienced in similar hotels. The only very minor issue we had was that the safe didnt work as batteries were missing.You do need a car, there are a lot of busy roads around and so walking around can be  a little dangerous but the area is safe. We were able to walk to a local BBQ restaurant and we used ubers when we both wanted to have a drink.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>We moved here after we had checked into and out of another very poor hotel in Houston. It was like night and day. The staff were so friendly and helpful, the rooms bright and comfortable. The breakfast was also very good, with a wider variety than we experienced in similar hotels. The only very minor issue we had was that the safe didnt work as batteries were missing.You do need a car, there are a lot of busy roads around and so walking around can be  a little dangerous but the area is safe. We were able to walk to a local BBQ restaurant and we used ubers when we both wanted to have a drink.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r432801148-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -387,9 +585,6 @@
     <t>Comfortable and clean rooms at this hotel with friendly and helpful staff. Free breakfast not too bad. Only problem is the distance to the city and if you have no car getting around is tough as the staff have no idea about the bus service, which actually works well if you can figure it out. Bus timetables  and A shuttle service would have been a great  help. if you are a tourist and cannot hire a car , rather go upmarket and choose a hotel in town.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Comfortable and clean rooms at this hotel with friendly and helpful staff. Free breakfast not too bad. Only problem is the distance to the city and if you have no car getting around is tough as the staff have no idea about the bus service, which actually works well if you can figure it out. Bus timetables  and A shuttle service would have been a great  help. if you are a tourist and cannot hire a car , rather go upmarket and choose a hotel in town.More</t>
   </si>
   <si>
@@ -414,6 +609,45 @@
     <t>Very large rooms with balconies. Illumination in rooms need improvement. Not much of ambience. Inadequate staff at reception. Okay breakfast. Free shuttles to theme parks. Not much of service. Good location with many hotels &amp; restaurants around.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r427163792-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427163792</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Superb Hotel</t>
+  </si>
+  <si>
+    <t>Very strategically located for our requirements. Good comfortable rooms with all amenities to make your stay comfortable. Friendly cooperative staff. Functional breakfast offered. Lot of Indian Cuisine restaurants close by for the Indian travellerMoreShow less</t>
+  </si>
+  <si>
+    <t>Very strategically located for our requirements. Good comfortable rooms with all amenities to make your stay comfortable. Friendly cooperative staff. Functional breakfast offered. Lot of Indian Cuisine restaurants close by for the Indian travellerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r425664735-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425664735</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Relocated from a Poor Hotel</t>
+  </si>
+  <si>
+    <t>This is a reasonable place to stay if your focus is only on the rooms. Big and comfortable and very clean. However, the breakfast was the standard of a cheaper motel. The staff wore jeans and polo shirts but old faded ones and not a uniform - scruffy. Personally we think this place is over priced for the lack of facilities it is room and breakfast only.There is a small indoor pool and fitness room but no bar.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>This is a reasonable place to stay if your focus is only on the rooms. Big and comfortable and very clean. However, the breakfast was the standard of a cheaper motel. The staff wore jeans and polo shirts but old faded ones and not a uniform - scruffy. Personally we think this place is over priced for the lack of facilities it is room and breakfast only.There is a small indoor pool and fitness room but no bar.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r396641267-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -468,6 +702,42 @@
     <t xml:space="preserve">U get what u pay for, the price was reasonable, room was nice, clean. Hotel is across from a starbucks so that was great. The free breakfast is great especially if u have children. The staff I encountered was wonderful.  Easy access to alot of things. Would definitely stay again. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r370560394-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370560394</t>
+  </si>
+  <si>
+    <t>05/05/2016</t>
+  </si>
+  <si>
+    <t>Clean,good service,comfortable</t>
+  </si>
+  <si>
+    <t>We have short business trip and we stay in bed his hotel. Price was good, location is great, easy with parking. Very convenient hotel,clean room, comfortable bed and pillows, quiet. Breakfast was good too: hot tea ( big selection), coffee., hot waffles, eggs, sausage . Choices on flakes and pastry. Personal very nice and helpful.Will recommend.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r369050326-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369050326</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>great visit</t>
+  </si>
+  <si>
+    <t>front desk was very helpful and manager made several suggestions when asked for local dining optons.  Room was clean and housekeeping was good.  breakfast was great and plentyful.  Area was clean and well maintained with fenced in area.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r365560464-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -525,6 +795,57 @@
     <t xml:space="preserve">I stayed here for 11 nights and I would highly recommend this place. The rooms were nice and spacious. The front desk was very helpful, especially Alma. She was so helpful to me.  The breakfast was good but I feel should be varied on daily basis. This makes your extended stay more relaxing. But as a whole it was fantastic place. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r353219851-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353219851</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t>This hotel could be better.</t>
+  </si>
+  <si>
+    <t>The location was okay and felt safe for the most part but lots of things need repair.  There's a panel in the elevator that was partially open.  Looks like it was damaged and partially repaired, the back door is supposed to be opened with your room key, but there was no lock at all on it.  As far as my room itself, the air conditioner was super loud and drowned out the TV.  Had to keep turning the volume up and down.  I'm sure it may be an inconvenience for your neighbors as well.  The towel rack in the bathroom wasn't secure and would come loose.  The towels were super thin and felt rough.  And I swear there's bugs in the room.  I wasn't in there for 10 minutes before I started itching.  On a good side, the person that checked me in was nice and I had no problems with staff and luckily there's two ways you enter and exit the hotel because it can be a pain trying to exit on the main roadway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Blake G, Front Office Manager at Comfort Inn &amp; Suites, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>The location was okay and felt safe for the most part but lots of things need repair.  There's a panel in the elevator that was partially open.  Looks like it was damaged and partially repaired, the back door is supposed to be opened with your room key, but there was no lock at all on it.  As far as my room itself, the air conditioner was super loud and drowned out the TV.  Had to keep turning the volume up and down.  I'm sure it may be an inconvenience for your neighbors as well.  The towel rack in the bathroom wasn't secure and would come loose.  The towels were super thin and felt rough.  And I swear there's bugs in the room.  I wasn't in there for 10 minutes before I started itching.  On a good side, the person that checked me in was nice and I had no problems with staff and luckily there's two ways you enter and exit the hotel because it can be a pain trying to exit on the main roadway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r350095679-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350095679</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Bad room, extremely RUDE Personnel at the front desk at night.</t>
+  </si>
+  <si>
+    <t>We decided to stay at this hotels based on the reviews and pictures we had seen online.........worst decision ever. This was our first time in Houston, we had a long drive and were anxious to get to our hotel and relax. We arrived late at night, the lady in the front desk was extremely rude. Being in the hospitality field myself i would never imagine to treat a guest of mine the way this lady did. She was upset that she had to get up from her chair in the back room to come to the desk and check us in. She was in no way courteous, much less friendly, basically made us feel like we were uninvited and were taking up her precious time. On our way up to our floor there were cotton swabs on the hallway and trash. Once in our room we noticed an awful smell but couldn't find what it was.The carpet seemed like it hadn't been vacuumed at all, the lamps were filthy, the fridge and microwave weren't clean as well. There was mold in the bathrooms ceiling, and the faucet was dirty as well.This room has seen better days.. I wish i had taken pictures to show proof of how bad this room was. This would be our first and last time at this hotel, i should've known better, i mean you get what you pay for....MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Blake G, Front Office Manager at Comfort Inn &amp; Suites, responded to this reviewResponded February 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2016</t>
+  </si>
+  <si>
+    <t>We decided to stay at this hotels based on the reviews and pictures we had seen online.........worst decision ever. This was our first time in Houston, we had a long drive and were anxious to get to our hotel and relax. We arrived late at night, the lady in the front desk was extremely rude. Being in the hospitality field myself i would never imagine to treat a guest of mine the way this lady did. She was upset that she had to get up from her chair in the back room to come to the desk and check us in. She was in no way courteous, much less friendly, basically made us feel like we were uninvited and were taking up her precious time. On our way up to our floor there were cotton swabs on the hallway and trash. Once in our room we noticed an awful smell but couldn't find what it was.The carpet seemed like it hadn't been vacuumed at all, the lamps were filthy, the fridge and microwave weren't clean as well. There was mold in the bathrooms ceiling, and the faucet was dirty as well.This room has seen better days.. I wish i had taken pictures to show proof of how bad this room was. This would be our first and last time at this hotel, i should've known better, i mean you get what you pay for....More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r348091119-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -540,15 +861,6 @@
     <t>we checked in room 503 the room was i guess under construction when you walk the carpet moves.the walls have spots that needs to be painted.the shower rod was taped with blue construction tape at one of its end and the tape was left in the bathroom.the towels are dirty with black spots on it my husband took pictures of what we saw..we expect better place as advertised but it was the worst experience of our life.MoreShow less</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
-    <t>Blake G, Front Office Manager at Comfort Inn &amp; Suites, responded to this reviewResponded March 9, 2016</t>
-  </si>
-  <si>
-    <t>Responded March 9, 2016</t>
-  </si>
-  <si>
     <t>we checked in room 503 the room was i guess under construction when you walk the carpet moves.the walls have spots that needs to be painted.the shower rod was taped with blue construction tape at one of its end and the tape was left in the bathroom.the towels are dirty with black spots on it my husband took pictures of what we saw..we expect better place as advertised but it was the worst experience of our life.More</t>
   </si>
   <si>
@@ -606,6 +918,48 @@
     <t>Stayed here twice for medical trip to MD Anderson. Staff was wonderful and both times supper was provided in lobby which was awesome.   Would recommend this hotel drive to medical center is approx 20-25 minutes. .More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r332191813-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332191813</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Friendly staff and Great Rooms</t>
+  </si>
+  <si>
+    <t>I was in Houston on business and needed to find a hotel nearby my morning appointment.  The bed was very comfortable and the hotel staff was very accommodating to me.  I left my key in my room when I went to dinner and Anthony made me a 2nd key without hesitation, after showing proper ID---plus, he had checked me in.  After I left, I called and spoke to Brandon to ask if I had left any of my possessions behind and he said no but he offered to go to the room and check.  While I didn't leave anything, having the peace of mind after confirming, was really great!  I'll go back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Erin F, Administrative Assistant at Comfort Inn &amp; Suites, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>I was in Houston on business and needed to find a hotel nearby my morning appointment.  The bed was very comfortable and the hotel staff was very accommodating to me.  I left my key in my room when I went to dinner and Anthony made me a 2nd key without hesitation, after showing proper ID---plus, he had checked me in.  After I left, I called and spoke to Brandon to ask if I had left any of my possessions behind and he said no but he offered to go to the room and check.  While I didn't leave anything, having the peace of mind after confirming, was really great!  I'll go back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r332018862-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332018862</t>
+  </si>
+  <si>
+    <t>Good visit</t>
+  </si>
+  <si>
+    <t>Aside from carpet stains on the second floor and my bed being a little under par.  I arrived after 1amand my room had been cancelled!   They quickly rectified the situation.  I really  can't complain about this hotel.  Near family while visiting and they offered  great value. The room was clean, large, comfortable overall and served its purpose.  Breakfast had hot eggs, waffles and sausage in addition to the usual  standard fare.  I would stay here again given the helpful staff, pleasant room and filling breakfast.   Also will be booking directly through the hotel in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Aside from carpet stains on the second floor and my bed being a little under par.  I arrived after 1amand my room had been cancelled!   They quickly rectified the situation.  I really  can't complain about this hotel.  Near family while visiting and they offered  great value. The room was clean, large, comfortable overall and served its purpose.  Breakfast had hot eggs, waffles and sausage in addition to the usual  standard fare.  I would stay here again given the helpful staff, pleasant room and filling breakfast.   Also will be booking directly through the hotel in the future.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r330384317-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -645,9 +999,6 @@
     <t>Outstanding facility and staff!  Clean from top to bottom with excellent customer service!  A very enjoyable and restful place to stay!  Located in a people friendly area of Stafford. Great dining and shopping!MoreShow less</t>
   </si>
   <si>
-    <t>November 2015</t>
-  </si>
-  <si>
     <t>Al M, Administrative Assistant at Comfort Inn &amp; Suites, responded to this reviewResponded December 2, 2015</t>
   </si>
   <si>
@@ -673,6 +1024,49 @@
   </si>
   <si>
     <t>Went on a business trip and found it perfect for my needs. Clean rooms, AC works perfect. Front desk staff is friendly and very polite. Plenty of options around for dinners like Denny's, KFC, Starbucks and plenty of good Indian restaurants. I will go back again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r322005643-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322005643</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Nice, Clean Hotel</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and guest services were very friendly.  We had a nice quiet stay here with a good hot breakfast in the morning - also the wi-fi here was the best of any choice hotel i have been to in recent years.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and guest services were very friendly.  We had a nice quiet stay here with a good hot breakfast in the morning - also the wi-fi here was the best of any choice hotel i have been to in recent years.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r316979205-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316979205</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Beyond average American motel</t>
+  </si>
+  <si>
+    <t>Usually, I don't expect much from American motels, even at their higher level, close to hotels. The conservative and old-fashioned decoration, carpets, furniture and drapes cannot score high with me. This hotel is no different. But, and there's a big but- they're trying their best to emerge above the average, and they succeed. 
+There's nothing good to write on the room's look- it's exactly as I expected and as written above. the amenities in the room, however, are generous, in USA motels standard: safe deposit box, a minibar, a microwave, an iron with iron board (I can't find it sometimes in much fancier hotels), a flat TV, a coffee machine (not Espresso, but American- after all, we're in the USA...), courtesy laundry room with the so-American, but efficient, washing machine combined with the dryer, ice machine and snacks vending machine (again- so American...). In the bathroom, you get enough towels, but if you expect to get shower gel- what you get is regular soap, so bring your own. There's a night light from the hair dryer, which is very herlpful, sgould you need to get up in the darkness. 
+but the biggest surprise was the breakfast. When a hotel in the USA says that it has "complimentary breakfast", I don't expect more than some muffins/bagels/bread, coffee, cream-cheese and orange juice, served with one-time plastic plates and cutlery. But this morning, I was surprised to see, in addition to all this,...Usually, I don't expect much from American motels, even at their higher level, close to hotels. The conservative and old-fashioned decoration, carpets, furniture and drapes cannot score high with me. This hotel is no different. But, and there's a big but- they're trying their best to emerge above the average, and they succeed. There's nothing good to write on the room's look- it's exactly as I expected and as written above. the amenities in the room, however, are generous, in USA motels standard: safe deposit box, a minibar, a microwave, an iron with iron board (I can't find it sometimes in much fancier hotels), a flat TV, a coffee machine (not Espresso, but American- after all, we're in the USA...), courtesy laundry room with the so-American, but efficient, washing machine combined with the dryer, ice machine and snacks vending machine (again- so American...). In the bathroom, you get enough towels, but if you expect to get shower gel- what you get is regular soap, so bring your own. There's a night light from the hair dryer, which is very herlpful, sgould you need to get up in the darkness. but the biggest surprise was the breakfast. When a hotel in the USA says that it has "complimentary breakfast", I don't expect more than some muffins/bagels/bread, coffee, cream-cheese and orange juice, served with one-time plastic plates and cutlery. But this morning, I was surprised to see, in addition to all this, scrambled eggs, hamburgers(!), waffle maker with two flavors of batter, cereals and fruits- so despite the plastic tools, it was more than I expected.For coffee- cross the street to the adjacent Starbucks. The windows of the room in the ground level were not able to block the traffic hustle from the junction, on which the hotel is located.MoreShow less</t>
+  </si>
+  <si>
+    <t>Usually, I don't expect much from American motels, even at their higher level, close to hotels. The conservative and old-fashioned decoration, carpets, furniture and drapes cannot score high with me. This hotel is no different. But, and there's a big but- they're trying their best to emerge above the average, and they succeed. 
+There's nothing good to write on the room's look- it's exactly as I expected and as written above. the amenities in the room, however, are generous, in USA motels standard: safe deposit box, a minibar, a microwave, an iron with iron board (I can't find it sometimes in much fancier hotels), a flat TV, a coffee machine (not Espresso, but American- after all, we're in the USA...), courtesy laundry room with the so-American, but efficient, washing machine combined with the dryer, ice machine and snacks vending machine (again- so American...). In the bathroom, you get enough towels, but if you expect to get shower gel- what you get is regular soap, so bring your own. There's a night light from the hair dryer, which is very herlpful, sgould you need to get up in the darkness. 
+but the biggest surprise was the breakfast. When a hotel in the USA says that it has "complimentary breakfast", I don't expect more than some muffins/bagels/bread, coffee, cream-cheese and orange juice, served with one-time plastic plates and cutlery. But this morning, I was surprised to see, in addition to all this,...Usually, I don't expect much from American motels, even at their higher level, close to hotels. The conservative and old-fashioned decoration, carpets, furniture and drapes cannot score high with me. This hotel is no different. But, and there's a big but- they're trying their best to emerge above the average, and they succeed. There's nothing good to write on the room's look- it's exactly as I expected and as written above. the amenities in the room, however, are generous, in USA motels standard: safe deposit box, a minibar, a microwave, an iron with iron board (I can't find it sometimes in much fancier hotels), a flat TV, a coffee machine (not Espresso, but American- after all, we're in the USA...), courtesy laundry room with the so-American, but efficient, washing machine combined with the dryer, ice machine and snacks vending machine (again- so American...). In the bathroom, you get enough towels, but if you expect to get shower gel- what you get is regular soap, so bring your own. There's a night light from the hair dryer, which is very herlpful, sgould you need to get up in the darkness. but the biggest surprise was the breakfast. When a hotel in the USA says that it has "complimentary breakfast", I don't expect more than some muffins/bagels/bread, coffee, cream-cheese and orange juice, served with one-time plastic plates and cutlery. But this morning, I was surprised to see, in addition to all this, scrambled eggs, hamburgers(!), waffle maker with two flavors of batter, cereals and fruits- so despite the plastic tools, it was more than I expected.For coffee- cross the street to the adjacent Starbucks. The windows of the room in the ground level were not able to block the traffic hustle from the junction, on which the hotel is located.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r295827942-Comfort_Inn_Suites-Houston_Texas.html</t>
@@ -759,6 +1153,45 @@
     <t>While visiting friends for a memorial service, we chose this location for its convenience. The staff wasn't the friendliest and was not all that enthused to be of any help. The furniture in the lobby was stained and dirty. Our room wasn't the cleanest, the furniture was old and beaten, the pillows were lumpy and flat, and the air conditioner did not work well. The air conditioner in the hallway did not work the entire week we were there. We chose not to eat any food in the hotel because of how dirty it was. This hotel will definitely not be revisited.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r289455230-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289455230</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and clean</t>
+  </si>
+  <si>
+    <t>Room environment - Clean and comfortable, spacious room, big TV at room.Service - goodLocation - quite far from the George Bush International Airport. It is a place where you have top be driven to anywhere.Noise - Sometimes we could hear the noise from the corridor, but it didn't cause us major problems.Overall - worth for the price, not too expensive, breakfast so so, room environment is goodMoreShow less</t>
+  </si>
+  <si>
+    <t>Erin F, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Room environment - Clean and comfortable, spacious room, big TV at room.Service - goodLocation - quite far from the George Bush International Airport. It is a place where you have top be driven to anywhere.Noise - Sometimes we could hear the noise from the corridor, but it didn't cause us major problems.Overall - worth for the price, not too expensive, breakfast so so, room environment is goodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r289449968-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289449968</t>
+  </si>
+  <si>
+    <t>Staying there was a real nightmare !</t>
+  </si>
+  <si>
+    <t>I have been stayed in many hotels in many countries , i never met as bad as this hotel , first of all the room cleaning was absent , although i told both reception &amp; housekeeping daily before i go out to make up my room they do nothing and when i back i find it as it was when i leave i complained to staff and manager but none of them do anything to me ! The room telephone does not work again i told the reception staff to fix or replace it but they never do in my whole stay ! the internet signal is so weak with continuously cutting , no water hose in the bathroom , the reception is always empty of reception staff , no bellboy to carry your bags in this hotel , no security guy on the hotel entrance , no safety box in the room , the AC cannot be switched off and no remote to control it from a distant ! they charge me around 3$ per day plus the total amount as a hidden charges which was no written in the pre-booking and excludes the city charges which was 17% , voucher , the hotel furniture and facilities is do not deserve more than 2 stars ... this hotel doesn't deserve 1 dollar to pay for , the manager never even say " sorry " when i complained to him...I have been stayed in many hotels in many countries , i never met as bad as this hotel , first of all the room cleaning was absent , although i told both reception &amp; housekeeping daily before i go out to make up my room they do nothing and when i back i find it as it was when i leave i complained to staff and manager but none of them do anything to me ! The room telephone does not work again i told the reception staff to fix or replace it but they never do in my whole stay ! the internet signal is so weak with continuously cutting , no water hose in the bathroom , the reception is always empty of reception staff , no bellboy to carry your bags in this hotel , no security guy on the hotel entrance , no safety box in the room , the AC cannot be switched off and no remote to control it from a distant ! they charge me around 3$ per day plus the total amount as a hidden charges which was no written in the pre-booking and excludes the city charges which was 17% , voucher , the hotel furniture and facilities is do not deserve more than 2 stars ... this hotel doesn't deserve 1 dollar to pay for , the manager never even say " sorry " when i complained to him neither take any action to deal with my complains .MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been stayed in many hotels in many countries , i never met as bad as this hotel , first of all the room cleaning was absent , although i told both reception &amp; housekeeping daily before i go out to make up my room they do nothing and when i back i find it as it was when i leave i complained to staff and manager but none of them do anything to me ! The room telephone does not work again i told the reception staff to fix or replace it but they never do in my whole stay ! the internet signal is so weak with continuously cutting , no water hose in the bathroom , the reception is always empty of reception staff , no bellboy to carry your bags in this hotel , no security guy on the hotel entrance , no safety box in the room , the AC cannot be switched off and no remote to control it from a distant ! they charge me around 3$ per day plus the total amount as a hidden charges which was no written in the pre-booking and excludes the city charges which was 17% , voucher , the hotel furniture and facilities is do not deserve more than 2 stars ... this hotel doesn't deserve 1 dollar to pay for , the manager never even say " sorry " when i complained to him...I have been stayed in many hotels in many countries , i never met as bad as this hotel , first of all the room cleaning was absent , although i told both reception &amp; housekeeping daily before i go out to make up my room they do nothing and when i back i find it as it was when i leave i complained to staff and manager but none of them do anything to me ! The room telephone does not work again i told the reception staff to fix or replace it but they never do in my whole stay ! the internet signal is so weak with continuously cutting , no water hose in the bathroom , the reception is always empty of reception staff , no bellboy to carry your bags in this hotel , no security guy on the hotel entrance , no safety box in the room , the AC cannot be switched off and no remote to control it from a distant ! they charge me around 3$ per day plus the total amount as a hidden charges which was no written in the pre-booking and excludes the city charges which was 17% , voucher , the hotel furniture and facilities is do not deserve more than 2 stars ... this hotel doesn't deserve 1 dollar to pay for , the manager never even say " sorry " when i complained to him neither take any action to deal with my complains .More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r286789911-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -822,6 +1255,39 @@
     <t>I stayed only one night at the Comfort Inn and was very satisfied.  The room was very clean, and the bed was comfortable.  One plus is that they have complimentary cookies and Kool-Aide in the lobby in case you want a snack.  The only negative comment I have is I was there for treatment at Tx Medical Center.  Most hotels give you a 10% discount if you are being treated at Tx Med. Center.  Not here.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r284560191-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284560191</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>As expected for the price</t>
+  </si>
+  <si>
+    <t>Room and bathroom were clean if somewhat dated and but had an unpleasant damp smell. Breakfast was fine, waffles, yoghurt, fruit, cereals etc . Though there wasn't very much cooked breakfast just sausages and scrambled egg and they weren't very nice. There was also a small pool and fitness suite. Overall pretty much as expected for a cheap stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r281136074-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281136074</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>I loved my stay</t>
+  </si>
+  <si>
+    <t>I had been in the Houston historic flood May 26, 2016 and had to go stay at the Comfort Inn for about a week and a half. Omg I really enjoyed it. The room was so clean and smelled good. I wanted to go from a one bed to a two bed and it wasn't a problem. The lady at the front desk Marleth was soo very nice to my grandbaby and I. I just have to thank her so much for making us feel welcomed and comfortable. She always smiles and really listened to me when I was feeling sad about losing everything in my home. Thanks again, didn't even wanna leave. oh and the breakfast was great and fresh.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had been in the Houston historic flood May 26, 2016 and had to go stay at the Comfort Inn for about a week and a half. Omg I really enjoyed it. The room was so clean and smelled good. I wanted to go from a one bed to a two bed and it wasn't a problem. The lady at the front desk Marleth was soo very nice to my grandbaby and I. I just have to thank her so much for making us feel welcomed and comfortable. She always smiles and really listened to me when I was feeling sad about losing everything in my home. Thanks again, didn't even wanna leave. oh and the breakfast was great and fresh.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r275370849-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -879,6 +1345,39 @@
     <t>I stayed at this hotel on the way to and from Padre Island with my two children (5 and 7).  The hotel is right off of 59 and easy to get to.  The parking lot is fenced and well lit. Check in and check out were a breeze. I was surprised to find out that the guest laundry facility is free and most of the time they supply free detergent. There is a security guard wandering around and the elevator does not work without your room key witch makes it feel extra safe. The pool is nice and clean.  Breakfast is the typical Comfort Inn breakfast and the breakfast area was clean and well stocked. The rooms are clean. The only negative I commit I would leave is that some minor maintenance matters that need to be taken care of. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r264600473-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264600473</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We used this hotel , just asking through Houston.  The hotel was very clean , very comfortable and the staff were friendly and helpful.  The breakfast was fine and even had somethings that us Vegan could eat.  Was no trouble at al to get us soy milk for our breakfast.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r262257344-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262257344</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>Truck broken into!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First impression the hotel is clean and the staff is very friendly and that was the case for the whole five day stay there. Then last night my truck window was broken into and they had security on duty which clearly didn't deter the criminal. Breakfast was good. Only reason I gave a 3 star is because it is not a safe parking lot for your vehicle even with an officer in the lobby. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r250014691-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1432,51 @@
     <t>I stayed here because it was one of few name properties available anywhere near the Galleria area for my short-notice business trip.It is a standard Comfort Suites property in a marginal neighborhood, but the property felt secure enough.  The facility was in generally average-to-good shape, except for lots of important touches: the desk chair in my room had a big rip in it, bed linens quite uncomfortable, the a/c-heater unit (one of those ubiquitous under-window motel units)  was quite noisy and seemed to only operate at high speed.  (It was a saving grace that it was a cold spell in Houston, such that I could turn the thing off and the room remained comfortable overnight.)The most disappointing was the unusability of the computers in the little computer room next to the desk.  Both of them required a login name and password, and the desk staff had no idea what it was.  And while they were a little apologetic about it, they quite distressingly acted as if this is the standard situation.It is clean enough and not a bad price for Houston, but for me, if the area is sold out again, I'll book a little farther away where I can count on a better night's stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r232323132-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>232323132</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>Tropical Breezes and Palm Trees</t>
+  </si>
+  <si>
+    <t>We found a friendly helpful staff and a well appointed lobby when we checked in. The room was quiet and had everything we needed. They were nice enough to give us some extra Suave shampoo and coffee upon request. The AC was cold and room had plenty of outlets for charging. We slept great with the loads of pillows and comfortable bed.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r218918664-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>218918664</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>Charge for non-attendance stay</t>
+  </si>
+  <si>
+    <t>booked prepaid advandce purchase, but this Hotel charge me for non present stay, it means some one did the check-in for me, how could it happen? did they check the check-in guest not carefully? a management like this can even exist? I'm sorry to posted this Review, I still have to fight for this case,.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Heather C, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded August 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2014</t>
+  </si>
+  <si>
+    <t>booked prepaid advandce purchase, but this Hotel charge me for non present stay, it means some one did the check-in for me, how could it happen? did they check the check-in guest not carefully? a management like this can even exist? I'm sorry to posted this Review, I still have to fight for this case,.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r216894874-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -951,12 +1495,6 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t>Heather C, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded August 9, 2014</t>
-  </si>
-  <si>
-    <t>Responded August 9, 2014</t>
-  </si>
-  <si>
     <t>The hotel location suited us so we booked this hotel. The hotel was well kept. Rooms were spacious. Beds were comfortable and staff friendly and helpful. The breakfast was free and pretty basic but it was good value for money. The hotel had free wifi. The staff was courteous. Overall our stay was comfortable and we had no issue with anything.More</t>
   </si>
   <si>
@@ -1005,6 +1543,57 @@
     <t>I highly recommend this motel, they had exceptional service and made sure we made the port on time to board our cruise ship. They also offered a shuttle to and from the boardwalk. Thanks for taking care of us so well. The motel is only a few miles from the cruise terminal and is very close to the space center as well.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r159555302-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159555302</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>Trying Harder and It Shows!</t>
+  </si>
+  <si>
+    <t>Reviews of this hotel were mixed when I made reservation but the hotel was located where I wanted to be and it had good brand recognition.  Under new management with highly motivated and professional staff.  Maintenance crews working full time, property is clean and well maintained.  Ask for the 4th floor which has been recently updated and is greatly improved, however we had two rooms on the 2d floor that were clean and pleasant, everything worked very well.  Comfortable beds, good toiletries (very good) 32" flat panel with good channel coverage.  Internet works well/fast (wireless).  Best breakfast in this class hotel I have seen (I travel frequently).   Weather turned bad but pool area is spotless and pool is ready to go.  KFC, JackintheBox and Dennys within 150 yards of front door.  Good location just south of Houston Galeria.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Holiday Inn H, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded May 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2013</t>
+  </si>
+  <si>
+    <t>Reviews of this hotel were mixed when I made reservation but the hotel was located where I wanted to be and it had good brand recognition.  Under new management with highly motivated and professional staff.  Maintenance crews working full time, property is clean and well maintained.  Ask for the 4th floor which has been recently updated and is greatly improved, however we had two rooms on the 2d floor that were clean and pleasant, everything worked very well.  Comfortable beds, good toiletries (very good) 32" flat panel with good channel coverage.  Internet works well/fast (wireless).  Best breakfast in this class hotel I have seen (I travel frequently).   Weather turned bad but pool area is spotless and pool is ready to go.  KFC, JackintheBox and Dennys within 150 yards of front door.  Good location just south of Houston Galeria.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r157463462-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157463462</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>This is a great hotel, nice clean rooms, the BEST free hotel breakfast, and the staff really seems to want perfection.The only issue I've had is the house keeper does a good job on the room but wont leave me any coffee, the rest of the staff makes up fo it though.I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Holiday Inn H, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded April 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2013</t>
+  </si>
+  <si>
+    <t>This is a great hotel, nice clean rooms, the BEST free hotel breakfast, and the staff really seems to want perfection.The only issue I've had is the house keeper does a good job on the room but wont leave me any coffee, the rest of the staff makes up fo it though.I would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r156202533-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1023,12 +1612,6 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>Holiday Inn H, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded April 12, 2013</t>
-  </si>
-  <si>
-    <t>Responded April 12, 2013</t>
-  </si>
-  <si>
     <t>Very Loud road noise next to I-59!!!  Room was ok but would not stay here again. Staff at front desk were nice and friendly. Do not what else to say but have to keep writing for review, need to change reviews to less than 200 characters. I have said enough, thanks!!!!More</t>
   </si>
   <si>
@@ -1077,6 +1660,42 @@
     <t>Spent one night here in February. This hotel is run down and suffering from heavy wear. It's very busy due to the location of I-59 and Hillcroft. It was easy to go places from here. Not enough light in our room. We had one king size bed, a microwave and sink and fridge. Front desk was helpful and friendly. Housekeeping and maintenance were helpful after I notified the desk of the mouse feces and urine stain in my bed &amp; the loose toilet seat.  I had taken a shower at night, put on my pajamas and slept in the bed. When I got up in the morning there were several pieces of mouse feces and a urine stain. I was utterly shocked at the filth. They took 1/8 of our bill off after this incident.   The lady handling the breakfast area took 15 minutes to replenish the hardboiled eggs after I told her that there were no hardboiled eggs in the fridge.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r153406690-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153406690</t>
+  </si>
+  <si>
+    <t>02/28/2013</t>
+  </si>
+  <si>
+    <t>Needs updating</t>
+  </si>
+  <si>
+    <t>Picked for the chains reputation and Priority club status.  Not a great neighborhood, and hotel is in need of an upgrade.  Not enough outlets in room for something as basic as cell phone on night stand without unplugging lights and/or alarm clock.  Water was not hot enough, and took awhile to get above just warm.  Saving grace for this location is the friendly staff, especially at check in.  Breakfast is consistant with other Express locations.MoreShow less</t>
+  </si>
+  <si>
+    <t>Picked for the chains reputation and Priority club status.  Not a great neighborhood, and hotel is in need of an upgrade.  Not enough outlets in room for something as basic as cell phone on night stand without unplugging lights and/or alarm clock.  Water was not hot enough, and took awhile to get above just warm.  Saving grace for this location is the friendly staff, especially at check in.  Breakfast is consistant with other Express locations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r146890104-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146890104</t>
+  </si>
+  <si>
+    <t>12/06/2012</t>
+  </si>
+  <si>
+    <t>a meeting with an out of town friend</t>
+  </si>
+  <si>
+    <t>Easy access to the freeway and several restaurants in the area, room was clean and so was the hotel, the parking was free, Friendly staff, good breakfast. even though this hotel supposedly smoke free i still smelled cigarette smoke in the hallways, and the Ice machine is missing on the 5th floor.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r140189621-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1759,48 @@
     <t>The general manager and her staff was very helpful when i asked them to resolved my room issue.  She and her staff didn't give me excuses. They just fixed the problem.  But that's not all.  There are hundreds of guests at this Holiday Inn hotel, but when I met the general manager in the hotel lobby, she remember who i am. I was really, really impressed with this!!!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r134296743-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134296743</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>Green pool...strange smells....</t>
+  </si>
+  <si>
+    <t>The customer service is very good, and the breakfast area was great. The location was perfect for us. On the downside, The room we stayed in for three nights was quite small, no mini fridge or micro. The carpet wasnt vacuumed, nor were the sheets changed. (i must add that every morning the beds were neatly made- clean bathroom too). Probably the most disappointig thing was that their pool water was green and murky, which was a huge bummer for out kiddos. Also, brace yourself!...the elevators and even the rooms have a peculiar smell...If you can overlook the strange smells and green water in pool, then this is the hotel for you. Again, customer service was very good and hospitable.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded August 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2012</t>
+  </si>
+  <si>
+    <t>The customer service is very good, and the breakfast area was great. The location was perfect for us. On the downside, The room we stayed in for three nights was quite small, no mini fridge or micro. The carpet wasnt vacuumed, nor were the sheets changed. (i must add that every morning the beds were neatly made- clean bathroom too). Probably the most disappointig thing was that their pool water was green and murky, which was a huge bummer for out kiddos. Also, brace yourself!...the elevators and even the rooms have a peculiar smell...If you can overlook the strange smells and green water in pool, then this is the hotel for you. Again, customer service was very good and hospitable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r131504023-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131504023</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Great hotel with good service, clean pool and rooms, the only negative is the area, i would not want to walk around this area alone at night</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r129375824-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1201,6 +1862,42 @@
   </si>
   <si>
     <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r125040742-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125040742</t>
+  </si>
+  <si>
+    <t>02/22/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay for business</t>
+  </si>
+  <si>
+    <t>Excellent guest service, great rooms, and very good good staff. I have stayed here twice already and on both occasions it was for business purposes. We got moved to a suite because the general manager Krupali Shah was kind enough to do so. The staff is polite and its one of the better Holiday Inn properties that we stayed at. Banking, shopping, recreation is all around the hotel. They give great concierge service as well at the front desk. Anne in paticular was very tolerant with our demands and she alongbwith her team did everything to make ends meet. Thankyou very much for a very pleasurable stay. I look forward to staying here in the near future. MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent guest service, great rooms, and very good good staff. I have stayed here twice already and on both occasions it was for business purposes. We got moved to a suite because the general manager Krupali Shah was kind enough to do so. The staff is polite and its one of the better Holiday Inn properties that we stayed at. Banking, shopping, recreation is all around the hotel. They give great concierge service as well at the front desk. Anne in paticular was very tolerant with our demands and she alongbwith her team did everything to make ends meet. Thankyou very much for a very pleasurable stay. I look forward to staying here in the near future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r124680647-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124680647</t>
+  </si>
+  <si>
+    <t>02/16/2012</t>
+  </si>
+  <si>
+    <t>A little too average for the price</t>
+  </si>
+  <si>
+    <t>My room was clean enough, it just wasn't all that great. This was an older property that a paint job couldn't update. I was bummed that my room didn't have a closet. It had tall box-like cupboards on each side of the TV with 3 hangers apiece. The heater/ac was also old and NOISY so I kept it off (thankfully it was February). So if you get a decent discount it would be OK, just not worth $100.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r120191928-Comfort_Inn_Suites-Houston_Texas.html</t>
@@ -1279,6 +1976,53 @@
     <t>We stayed here as part of a business trip and was not pleased with the room which was musty and smelled of mold.  I understand Houston is humid, but the reason this room was bad was throughout the night the air conditioner squelled.  When reported to the front desk they said management wasn't availabe at the hotel that day and they would let them know.  Never contacted by management even though my husband stays often with this chain for business.  The staff were pleasant and the breakfast was good, however, I heard another guest complain that the pool was green!  The traffic noise along the highway was loud as well.  The parking lot was well lit and security cameras are in place according to the staff.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r107255183-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>107255183</t>
+  </si>
+  <si>
+    <t>05/07/2011</t>
+  </si>
+  <si>
+    <t>Bad with logistics and awful gym</t>
+  </si>
+  <si>
+    <t>I stayed here May 1-5 for a business trip to the Offshore Technology Conference.  I don't want to be overly harsh so I'll start with the good.
+The rooms were nice, clean and relatively quiet (see AC below).  The breakfast spread was the most extensive I've seen at any restaurant (and its free).  Pancakes, waffles, biscuits, cereal, fruit, cinnamon rolls--very nice and tasty.  The staff seemed friendly and tried to be helpful.
+Now for the bad.  Admittedly they ticked me off from the get-go when I tried to check in and my room wasn't ready.  I wouldn't have been as angry if I hadn't just called that morning to make sure the room would be ready.  When I arrived and they said it wasn't available they told me to run the errand I had to run and come back in 10-15 minutes.  When I got back they said the room still wasn't ready and wouldn't be ready for another hour.  Third time's a charm!  When I returned the third time (and hour and a half after I originally arrived) the room was finally ready.  They apologized, but didn't do anything to remedy the issue or to make me less angry.
+The room:  The air conditioning units are extremely noisy and its very hard to regulate the temperature.  I also didn't use it one day because the weather was cool, but when I turned it on the next day it smelled...I stayed here May 1-5 for a business trip to the Offshore Technology Conference.  I don't want to be overly harsh so I'll start with the good.The rooms were nice, clean and relatively quiet (see AC below).  The breakfast spread was the most extensive I've seen at any restaurant (and its free).  Pancakes, waffles, biscuits, cereal, fruit, cinnamon rolls--very nice and tasty.  The staff seemed friendly and tried to be helpful.Now for the bad.  Admittedly they ticked me off from the get-go when I tried to check in and my room wasn't ready.  I wouldn't have been as angry if I hadn't just called that morning to make sure the room would be ready.  When I arrived and they said it wasn't available they told me to run the errand I had to run and come back in 10-15 minutes.  When I got back they said the room still wasn't ready and wouldn't be ready for another hour.  Third time's a charm!  When I returned the third time (and hour and a half after I originally arrived) the room was finally ready.  They apologized, but didn't do anything to remedy the issue or to make me less angry.The room:  The air conditioning units are extremely noisy and its very hard to regulate the temperature.  I also didn't use it one day because the weather was cool, but when I turned it on the next day it smelled moldy.  The sink in my bathroom didn't have a drain cover and the water backed up and brought up dirty from the drain hole.  It also smelled funny.  The throw blanket at the foot of the bed had dirty patches on it, so I assume they don't clean these regularly.  My key also stopped working three separate times.The gym:  This was an awful gym.  It had a bike, a nordic trak, a treadmill that didn't work and a cheapy eliptical that I also couldn't seem to get working properly.  It smelled like cigarette smoke in the gym and I saw a few mosquitos buzzing around.  The tv only had about 5 channels that worked.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here May 1-5 for a business trip to the Offshore Technology Conference.  I don't want to be overly harsh so I'll start with the good.
+The rooms were nice, clean and relatively quiet (see AC below).  The breakfast spread was the most extensive I've seen at any restaurant (and its free).  Pancakes, waffles, biscuits, cereal, fruit, cinnamon rolls--very nice and tasty.  The staff seemed friendly and tried to be helpful.
+Now for the bad.  Admittedly they ticked me off from the get-go when I tried to check in and my room wasn't ready.  I wouldn't have been as angry if I hadn't just called that morning to make sure the room would be ready.  When I arrived and they said it wasn't available they told me to run the errand I had to run and come back in 10-15 minutes.  When I got back they said the room still wasn't ready and wouldn't be ready for another hour.  Third time's a charm!  When I returned the third time (and hour and a half after I originally arrived) the room was finally ready.  They apologized, but didn't do anything to remedy the issue or to make me less angry.
+The room:  The air conditioning units are extremely noisy and its very hard to regulate the temperature.  I also didn't use it one day because the weather was cool, but when I turned it on the next day it smelled...I stayed here May 1-5 for a business trip to the Offshore Technology Conference.  I don't want to be overly harsh so I'll start with the good.The rooms were nice, clean and relatively quiet (see AC below).  The breakfast spread was the most extensive I've seen at any restaurant (and its free).  Pancakes, waffles, biscuits, cereal, fruit, cinnamon rolls--very nice and tasty.  The staff seemed friendly and tried to be helpful.Now for the bad.  Admittedly they ticked me off from the get-go when I tried to check in and my room wasn't ready.  I wouldn't have been as angry if I hadn't just called that morning to make sure the room would be ready.  When I arrived and they said it wasn't available they told me to run the errand I had to run and come back in 10-15 minutes.  When I got back they said the room still wasn't ready and wouldn't be ready for another hour.  Third time's a charm!  When I returned the third time (and hour and a half after I originally arrived) the room was finally ready.  They apologized, but didn't do anything to remedy the issue or to make me less angry.The room:  The air conditioning units are extremely noisy and its very hard to regulate the temperature.  I also didn't use it one day because the weather was cool, but when I turned it on the next day it smelled moldy.  The sink in my bathroom didn't have a drain cover and the water backed up and brought up dirty from the drain hole.  It also smelled funny.  The throw blanket at the foot of the bed had dirty patches on it, so I assume they don't clean these regularly.  My key also stopped working three separate times.The gym:  This was an awful gym.  It had a bike, a nordic trak, a treadmill that didn't work and a cheapy eliptical that I also couldn't seem to get working properly.  It smelled like cigarette smoke in the gym and I saw a few mosquitos buzzing around.  The tv only had about 5 channels that worked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r98839009-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>98839009</t>
+  </si>
+  <si>
+    <t>03/03/2011</t>
+  </si>
+  <si>
+    <t>Not staying here again.</t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn Express HOUSTON HWY 59S/HILLCROFT, for a Thursday &amp; Friday night.  I called the hotel &amp; the price they offered was more than their online reservations (which was also cheaper than the so-called “low price” services such as expedia, hotwire, etc.).  So, I made the reservation online.  Their website said the “king suite” had a pull-out sofa-bed, and that’s what we needed, so I reserved that room with my credit card.  The next day, I checked the reservation &amp; found that it had just given us a king room, not a king suite.  So, I called the hotel and they changed the reservation after confirming that the king suite room did have the pull-out sofa-bed.  We were also told that our room had already been set aside for us, and were given the room number.
+The next night when we arrived, we were given a different room.  No big deal, we figured it was the same as we had reserved – king suite with pull-out sofa-bed.  When we got up to the room, the first thing we did was check to confirm that the sofa pulled-out to a bed.  It did not.  I went back down to the front desk &amp; was told that none of the rooms have the pull-out sofa-bed.  I was also told that the room we had been promised already had someone else in it.  I bit my tongue because this...We stayed at the Holiday Inn Express HOUSTON HWY 59S/HILLCROFT, for a Thursday &amp; Friday night.  I called the hotel &amp; the price they offered was more than their online reservations (which was also cheaper than the so-called “low price” services such as expedia, hotwire, etc.).  So, I made the reservation online.  Their website said the “king suite” had a pull-out sofa-bed, and that’s what we needed, so I reserved that room with my credit card.  The next day, I checked the reservation &amp; found that it had just given us a king room, not a king suite.  So, I called the hotel and they changed the reservation after confirming that the king suite room did have the pull-out sofa-bed.  We were also told that our room had already been set aside for us, and were given the room number.The next night when we arrived, we were given a different room.  No big deal, we figured it was the same as we had reserved – king suite with pull-out sofa-bed.  When we got up to the room, the first thing we did was check to confirm that the sofa pulled-out to a bed.  It did not.  I went back down to the front desk &amp; was told that none of the rooms have the pull-out sofa-bed.  I was also told that the room we had been promised already had someone else in it.  I bit my tongue because this clerk had nothing to do with the cluster-mess they had caused us.  We have 5 yr old twins (blow up air beds which we always carry) and a 9 yr old daughter who was supposed to sleep on the pull-out sofa-bed. I explained to the clerk that I expected the hotel to adjust the billing, and he said I’d need to speak with one of the managers the next morning.  The next morning, the manager did offer to reduce the price to their “manager’s special” price, but I declined and told them that if I didn’t get what I was promised, then I expected the lowest price they had online, and showed them what it was.  They gave it to me.  Of course, that did not make our daughter any more comfortable sleeping on a too-short couch or even on a too-short air bed with one of the twins sleeping (tossing &amp; turning &amp; kicking us) on the king bed between my wife &amp; I.To make matters worse, the fluorescent light over the wet-bar/kitchenette did not work, the toilet seat was very loose, the toilet made a very loud flushing noise that was nothing I’d ever ever heard before, and the coffee maker had no carafe.  I had given that list to the night clerk, and again to the manager that first morning, before we left to sight-see for the day.  When we got back that evening, the light had been fixed, but nothing else.  Since I really prefer to make coffee in the room and drink it while getting the kids (&amp; myself) dressed, I went back down and asked for a carafe, which I was immediately given.  The next morning, the light again failed to work &amp; required some turning of the bulb (there was no cover on it) to get it to come on.  They never did fix the loose toilet seat, and I fear the next “guest” would fall in.On the plus side, the staff was nice, and the free breakfast included hot scrambled eggs (probably frozen &amp; re-thawed in the microwave), biscuits, gravy, sausage on Friday morning &amp; bacon on Saturday morning, and fresh pancakes, made by a machine (I prefer the make-them-yourself waffles, but that’s no big deal), and frozen French toast &amp; waffles, along with yogurt, bananas, milk, oj &amp; apple juice – all in all it was not a bad spread, but not enough to make up for the two restless nights because of the lack of the advertised &amp; promised pull-out sofa-bed.We won’t stay here again.  They lied about the sofa-bed, the website was not up-to-date.  The hotel claimed that the “newly renovated” rooms did not have the sofa-beds, but our room was far from “newly” renovated, unless they apparently meant sometime last century.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn Express HOUSTON HWY 59S/HILLCROFT, for a Thursday &amp; Friday night.  I called the hotel &amp; the price they offered was more than their online reservations (which was also cheaper than the so-called “low price” services such as expedia, hotwire, etc.).  So, I made the reservation online.  Their website said the “king suite” had a pull-out sofa-bed, and that’s what we needed, so I reserved that room with my credit card.  The next day, I checked the reservation &amp; found that it had just given us a king room, not a king suite.  So, I called the hotel and they changed the reservation after confirming that the king suite room did have the pull-out sofa-bed.  We were also told that our room had already been set aside for us, and were given the room number.
+The next night when we arrived, we were given a different room.  No big deal, we figured it was the same as we had reserved – king suite with pull-out sofa-bed.  When we got up to the room, the first thing we did was check to confirm that the sofa pulled-out to a bed.  It did not.  I went back down to the front desk &amp; was told that none of the rooms have the pull-out sofa-bed.  I was also told that the room we had been promised already had someone else in it.  I bit my tongue because this...We stayed at the Holiday Inn Express HOUSTON HWY 59S/HILLCROFT, for a Thursday &amp; Friday night.  I called the hotel &amp; the price they offered was more than their online reservations (which was also cheaper than the so-called “low price” services such as expedia, hotwire, etc.).  So, I made the reservation online.  Their website said the “king suite” had a pull-out sofa-bed, and that’s what we needed, so I reserved that room with my credit card.  The next day, I checked the reservation &amp; found that it had just given us a king room, not a king suite.  So, I called the hotel and they changed the reservation after confirming that the king suite room did have the pull-out sofa-bed.  We were also told that our room had already been set aside for us, and were given the room number.The next night when we arrived, we were given a different room.  No big deal, we figured it was the same as we had reserved – king suite with pull-out sofa-bed.  When we got up to the room, the first thing we did was check to confirm that the sofa pulled-out to a bed.  It did not.  I went back down to the front desk &amp; was told that none of the rooms have the pull-out sofa-bed.  I was also told that the room we had been promised already had someone else in it.  I bit my tongue because this clerk had nothing to do with the cluster-mess they had caused us.  We have 5 yr old twins (blow up air beds which we always carry) and a 9 yr old daughter who was supposed to sleep on the pull-out sofa-bed. I explained to the clerk that I expected the hotel to adjust the billing, and he said I’d need to speak with one of the managers the next morning.  The next morning, the manager did offer to reduce the price to their “manager’s special” price, but I declined and told them that if I didn’t get what I was promised, then I expected the lowest price they had online, and showed them what it was.  They gave it to me.  Of course, that did not make our daughter any more comfortable sleeping on a too-short couch or even on a too-short air bed with one of the twins sleeping (tossing &amp; turning &amp; kicking us) on the king bed between my wife &amp; I.To make matters worse, the fluorescent light over the wet-bar/kitchenette did not work, the toilet seat was very loose, the toilet made a very loud flushing noise that was nothing I’d ever ever heard before, and the coffee maker had no carafe.  I had given that list to the night clerk, and again to the manager that first morning, before we left to sight-see for the day.  When we got back that evening, the light had been fixed, but nothing else.  Since I really prefer to make coffee in the room and drink it while getting the kids (&amp; myself) dressed, I went back down and asked for a carafe, which I was immediately given.  The next morning, the light again failed to work &amp; required some turning of the bulb (there was no cover on it) to get it to come on.  They never did fix the loose toilet seat, and I fear the next “guest” would fall in.On the plus side, the staff was nice, and the free breakfast included hot scrambled eggs (probably frozen &amp; re-thawed in the microwave), biscuits, gravy, sausage on Friday morning &amp; bacon on Saturday morning, and fresh pancakes, made by a machine (I prefer the make-them-yourself waffles, but that’s no big deal), and frozen French toast &amp; waffles, along with yogurt, bananas, milk, oj &amp; apple juice – all in all it was not a bad spread, but not enough to make up for the two restless nights because of the lack of the advertised &amp; promised pull-out sofa-bed.We won’t stay here again.  They lied about the sofa-bed, the website was not up-to-date.  The hotel claimed that the “newly renovated” rooms did not have the sofa-beds, but our room was far from “newly” renovated, unless they apparently meant sometime last century.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r96930906-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1294,9 +2038,6 @@
     <t>I booked this hotel through Hotels.com, I received confirmation numbers from both Hotels.com and Holiday Inn Express.Tonight, I travelled long way from Houston International Airport to this hotel and hotel told me that all rooms have been over-sold. They didn't say sorry because it is common practice. Instead of giving me a booked room, receptionist gave me a sheet for driving direction to Quality Inn &amp; Suites, that is 20.45 miles from this hotel.</t>
   </si>
   <si>
-    <t>February 2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r55101812-Comfort_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1334,6 +2075,48 @@
   </si>
   <si>
     <t>The room was ok, nothing exceptional, fairly clean, room was very small (ok for 2). Breakfast selection is also ok, cereal, beverages, breads and rolls, typical. The only problem was the lady taking care of the breakfast area... very rude, not only to me but to others. The orange juice had ran out, all they had was apple juice (both on the same fountain machine), there was no sign and I didn't know it had ran out, so I try to pour orange juice and there she comes screaming (I'm not exaggerating) that there wasn't anymore orange juice. I was so taken aback that I froze, so she kept screaming: "no orange juice." She did that to a couple more people. Then there was a man with his little daughter and he asked her for something his daughter wanted, she was again very rude and loud: "all we have is here." I don't know if she was having a bad day or if that's just how she is... either way the guests shouldn't have to put up with it. That was a horrible way to start the day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r22867929-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>22867929</t>
+  </si>
+  <si>
+    <t>12/20/2008</t>
+  </si>
+  <si>
+    <t>Comfortable, convenient &amp; good price</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks December 08.    Upon checking in I was told that there may be some minor Hurricane Ike damage in the room, but if it bothered me, I could switch to another room.The room had a piece of drywall cut out on the bottom of a wall near a window, with plastic sheeting covering it, but it was not a problem.The room was always clean, the bed comfortable.  The wireless internet was very good save for one night for some reason.Unlike may of the HIEs I have stayed at, this one had 2 elevators, which is always a plus... maybe because this was was 5 floors it had to have more than one.Breakfast was the usual HIE fare....reasonably good, though no waffle maker as some have there.The staff was always friendly, accomodating and helpful.  The location was uff of US59, so it was convenient to get many places.  The area is many typical off highway, with stores nearby, with fastfood near to the hotel.Good place to stay at a reasonable price.  Not fancy, but comfortable &amp; clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks December 08.    Upon checking in I was told that there may be some minor Hurricane Ike damage in the room, but if it bothered me, I could switch to another room.The room had a piece of drywall cut out on the bottom of a wall near a window, with plastic sheeting covering it, but it was not a problem.The room was always clean, the bed comfortable.  The wireless internet was very good save for one night for some reason.Unlike may of the HIEs I have stayed at, this one had 2 elevators, which is always a plus... maybe because this was was 5 floors it had to have more than one.Breakfast was the usual HIE fare....reasonably good, though no waffle maker as some have there.The staff was always friendly, accomodating and helpful.  The location was uff of US59, so it was convenient to get many places.  The area is many typical off highway, with stores nearby, with fastfood near to the hotel.Good place to stay at a reasonable price.  Not fancy, but comfortable &amp; clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r8060585-Comfort_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8060585</t>
+  </si>
+  <si>
+    <t>07/04/2007</t>
+  </si>
+  <si>
+    <t>Find another place if you can...</t>
+  </si>
+  <si>
+    <t>Went to Sugarland for business with a colleague and stay in this hotel for more than a week. Initially was staying in another Holiday Inn Hotel near The Fountain, but this hotel was closer to the office, so we shifted.The hotel was ok for business travel, but transport in Houston was an issue... no public transport, except for cabs, which you have to call and wait.... The room carpet had cigarette burn marks, the room was best, an average room. Breakfast was buffet style but very limited choice of food, with the usual bread and cornflakes ++...All was ok until we check out and realised that they've added additional laundry charges on our bills... so we ask them to correct it... and thought it was fine after that. But when we received our credit card statement, the laundry charges were still included... we wrote in to the hotel but have not received any reply. Even though the amount wasn't much, I was disappointed that such incidents can occur...MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>Went to Sugarland for business with a colleague and stay in this hotel for more than a week. Initially was staying in another Holiday Inn Hotel near The Fountain, but this hotel was closer to the office, so we shifted.The hotel was ok for business travel, but transport in Houston was an issue... no public transport, except for cabs, which you have to call and wait.... The room carpet had cigarette burn marks, the room was best, an average room. Breakfast was buffet style but very limited choice of food, with the usual bread and cornflakes ++...All was ok until we check out and realised that they've added additional laundry charges on our bills... so we ask them to correct it... and thought it was fine after that. But when we received our credit card statement, the laundry charges were still included... we wrote in to the hotel but have not received any reply. Even though the amount wasn't much, I was disappointed that such incidents can occur...More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223179-r7968210-Comfort_Inn_Suites-Houston_Texas.html</t>
@@ -1907,7 +2690,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1920,14 +2703,16 @@
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1943,7 +2728,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1952,37 +2737,37 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
@@ -1994,7 +2779,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -2022,34 +2807,34 @@
         <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
@@ -2061,7 +2846,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -2077,7 +2862,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2086,22 +2871,26 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -2130,7 +2919,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2139,35 +2928,41 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
       <c r="R6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2175,7 +2970,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -2191,7 +2986,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2200,32 +2995,38 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>79</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
       </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
       <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
         <v>3</v>
@@ -2276,28 +3077,34 @@
         <v>5</v>
       </c>
       <c r="N8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" t="s">
         <v>90</v>
       </c>
-      <c r="O8" t="s">
-        <v>91</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>92</v>
-      </c>
-      <c r="X8" t="s">
-        <v>93</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -2313,58 +3120,58 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
         <v>95</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>90</v>
-      </c>
-      <c r="O9" t="s">
-        <v>53</v>
-      </c>
       <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>100</v>
-      </c>
-      <c r="X9" t="s">
-        <v>101</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -2380,7 +3187,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2389,26 +3196,22 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>108</v>
-      </c>
-      <c r="O10" t="s">
-        <v>53</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -2421,7 +3224,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -2437,7 +3240,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2446,32 +3249,30 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
@@ -2481,14 +3282,10 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>115</v>
-      </c>
-      <c r="X11" t="s">
-        <v>116</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
@@ -2504,7 +3301,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2513,49 +3310,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
         <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
         <v>115</v>
-      </c>
-      <c r="X12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="13">
@@ -2571,7 +3362,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2580,49 +3371,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="X13" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -2638,7 +3423,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2647,49 +3432,47 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="X14" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
@@ -2705,7 +3488,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2714,47 +3497,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="X15" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
@@ -2770,48 +3549,58 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
         <v>145</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>146</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>147</v>
       </c>
-      <c r="K16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L16" t="s">
-        <v>149</v>
-      </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="O16" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X16" t="s">
+        <v>149</v>
+      </c>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -2827,7 +3616,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2836,45 +3625,39 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O17" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>3</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -2890,7 +3673,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2899,43 +3682,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="X18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
@@ -2951,7 +3740,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2960,22 +3749,26 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>90</v>
+      </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
@@ -2985,10 +3778,14 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>163</v>
+      </c>
+      <c r="X19" t="s">
+        <v>164</v>
+      </c>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
@@ -3004,7 +3801,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3013,49 +3810,49 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O20" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
       <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="X20" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
@@ -3071,58 +3868,58 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
         <v>178</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>179</v>
-      </c>
-      <c r="J21" t="s">
-        <v>180</v>
-      </c>
-      <c r="K21" t="s">
-        <v>181</v>
-      </c>
-      <c r="L21" t="s">
-        <v>182</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>183</v>
-      </c>
       <c r="O21" t="s">
-        <v>123</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="X21" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Y21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
@@ -3138,7 +3935,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3147,47 +3944,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>193</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
         <v>5</v>
       </c>
-      <c r="N22" t="s">
-        <v>192</v>
-      </c>
-      <c r="O22" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="X22" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y22" t="s">
         <v>194</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="23">
@@ -3203,52 +4002,58 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
         <v>196</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>197</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>198</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>199</v>
       </c>
-      <c r="L23" t="s">
-        <v>200</v>
-      </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="X23" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="Y23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
@@ -3264,58 +4069,58 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>202</v>
+      </c>
+      <c r="J24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" t="s">
         <v>204</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>205</v>
       </c>
-      <c r="J24" t="s">
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
         <v>206</v>
       </c>
-      <c r="K24" t="s">
-        <v>207</v>
-      </c>
-      <c r="L24" t="s">
-        <v>208</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>209</v>
-      </c>
       <c r="O24" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="X24" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="Y24" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
@@ -3331,48 +4136,58 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
         <v>213</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
-        <v>214</v>
-      </c>
-      <c r="J25" t="s">
-        <v>215</v>
-      </c>
-      <c r="K25" t="s">
-        <v>216</v>
-      </c>
-      <c r="L25" t="s">
-        <v>217</v>
-      </c>
-      <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="s"/>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="X25" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="Y25" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26">
@@ -3388,52 +4203,56 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" t="s">
         <v>219</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>220</v>
-      </c>
-      <c r="J26" t="s">
-        <v>221</v>
-      </c>
-      <c r="K26" t="s">
-        <v>222</v>
-      </c>
-      <c r="L26" t="s">
-        <v>223</v>
-      </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="O26" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="X26" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="Y26" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27">
@@ -3449,7 +4268,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3458,47 +4277,39 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="O27" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>233</v>
-      </c>
-      <c r="X27" t="s">
-        <v>234</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
@@ -3514,7 +4325,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3523,47 +4334,39 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="J28" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>3</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>242</v>
-      </c>
-      <c r="X28" t="s">
-        <v>243</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29">
@@ -3579,7 +4382,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3588,47 +4391,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="J29" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="O29" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>250</v>
-      </c>
-      <c r="X29" t="s">
-        <v>251</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
@@ -3644,7 +4443,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3653,43 +4452,45 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="J30" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>258</v>
-      </c>
-      <c r="X30" t="s">
-        <v>259</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31">
@@ -3705,7 +4506,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3714,22 +4515,26 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="J31" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="K31" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>243</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
@@ -3739,10 +4544,14 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>249</v>
+      </c>
+      <c r="X31" t="s">
+        <v>250</v>
+      </c>
       <c r="Y31" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32">
@@ -3758,7 +4567,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3767,45 +4576,35 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="J32" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="L32" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s">
-        <v>271</v>
-      </c>
-      <c r="O32" t="s">
-        <v>91</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33">
@@ -3821,7 +4620,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3830,26 +4629,22 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="J33" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="K33" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s">
-        <v>271</v>
-      </c>
-      <c r="O33" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
@@ -3859,10 +4654,14 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>262</v>
+      </c>
+      <c r="X33" t="s">
+        <v>263</v>
+      </c>
       <c r="Y33" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34">
@@ -3878,7 +4677,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3887,39 +4686,49 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="O34" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>271</v>
+      </c>
+      <c r="X34" t="s">
+        <v>272</v>
+      </c>
       <c r="Y34" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
@@ -3935,7 +4744,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3944,33 +4753,33 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="J35" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="O35" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
@@ -3979,10 +4788,14 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>262</v>
+      </c>
+      <c r="X35" t="s">
+        <v>263</v>
+      </c>
       <c r="Y35" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36">
@@ -3998,7 +4811,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4007,31 +4820,33 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="J36" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="K36" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="n">
+        <v>96</v>
+      </c>
+      <c r="P36" t="n">
         <v>5</v>
       </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
@@ -4040,10 +4855,14 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>286</v>
+      </c>
+      <c r="X36" t="s">
+        <v>287</v>
+      </c>
       <c r="Y36" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37">
@@ -4059,7 +4878,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4068,45 +4887,47 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="J37" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K37" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O37" t="s">
         <v>53</v>
       </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>295</v>
+      </c>
+      <c r="X37" t="s">
+        <v>296</v>
+      </c>
       <c r="Y37" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38">
@@ -4122,7 +4943,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4131,43 +4952,47 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="J38" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K38" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="O38" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="X38" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Y38" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39">
@@ -4183,7 +5008,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4192,53 +5017,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J39" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="K39" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>4</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="X39" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="Y39" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40">
@@ -4254,7 +5069,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4263,22 +5078,26 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="J40" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K40" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>294</v>
+      </c>
+      <c r="O40" t="s">
+        <v>73</v>
+      </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
@@ -4289,13 +5108,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
+        <v>317</v>
+      </c>
+      <c r="X40" t="s">
         <v>318</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>319</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="41">
@@ -4311,7 +5130,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4320,53 +5139,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J41" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="X41" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="Y41" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42">
@@ -4382,7 +5197,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4391,53 +5206,39 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="J42" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="K42" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
-      </c>
-      <c r="N42" t="s">
-        <v>332</v>
-      </c>
-      <c r="O42" t="s">
-        <v>123</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
+        <v>317</v>
+      </c>
+      <c r="X42" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y42" t="s">
         <v>333</v>
-      </c>
-      <c r="X42" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="43">
@@ -4453,7 +5254,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4462,53 +5263,49 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="J43" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="X43" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="Y43" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44">
@@ -4524,7 +5321,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4533,53 +5330,49 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="J44" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="K44" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="O44" t="s">
-        <v>91</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="X44" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="Y44" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45">
@@ -4595,7 +5388,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4604,53 +5397,43 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="J45" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="O45" t="s">
         <v>53</v>
       </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="X45" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Y45" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46">
@@ -4666,7 +5449,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4675,49 +5458,47 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J46" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="K46" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L46" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="O46" t="s">
         <v>53</v>
       </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
         <v>4</v>
       </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>361</v>
+      </c>
+      <c r="X46" t="s">
+        <v>362</v>
+      </c>
       <c r="Y46" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47">
@@ -4733,7 +5514,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4742,53 +5523,47 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="J47" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K47" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L47" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>369</v>
+      </c>
+      <c r="O47" t="s">
+        <v>80</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
         <v>2</v>
       </c>
-      <c r="N47" t="s">
-        <v>377</v>
-      </c>
-      <c r="O47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3</v>
-      </c>
-      <c r="R47" t="n">
-        <v>3</v>
-      </c>
-      <c r="S47" t="n">
-        <v>3</v>
-      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="X47" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="Y47" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48">
@@ -4804,7 +5579,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4813,49 +5588,47 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="J48" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="K48" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="L48" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
       </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>378</v>
+      </c>
+      <c r="X48" t="s">
+        <v>379</v>
+      </c>
       <c r="Y48" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49">
@@ -4871,7 +5644,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4880,49 +5653,49 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J49" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="K49" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="O49" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>317</v>
+      </c>
+      <c r="X49" t="s">
+        <v>318</v>
+      </c>
       <c r="Y49" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50">
@@ -4938,7 +5711,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4947,49 +5720,47 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="J50" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="K50" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L50" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="O50" t="s">
         <v>53</v>
       </c>
-      <c r="P50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
       <c r="R50" t="n">
-        <v>2</v>
-      </c>
-      <c r="S50" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>391</v>
+      </c>
+      <c r="X50" t="s">
+        <v>392</v>
+      </c>
       <c r="Y50" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51">
@@ -5005,7 +5776,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5014,45 +5785,43 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J51" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K51" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="O51" t="s">
         <v>53</v>
       </c>
-      <c r="P51" t="n">
-        <v>1</v>
-      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
-      <c r="S51" t="n">
-        <v>2</v>
-      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>1</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>399</v>
+      </c>
+      <c r="X51" t="s">
+        <v>400</v>
+      </c>
       <c r="Y51" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="52">
@@ -5068,54 +5837,44 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
+        <v>402</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>403</v>
+      </c>
+      <c r="J52" t="s">
+        <v>404</v>
+      </c>
+      <c r="K52" t="s">
+        <v>405</v>
+      </c>
+      <c r="L52" t="s">
         <v>406</v>
       </c>
-      <c r="G52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" t="s">
-        <v>407</v>
-      </c>
-      <c r="J52" t="s">
-        <v>408</v>
-      </c>
-      <c r="K52" t="s">
-        <v>409</v>
-      </c>
-      <c r="L52" t="s">
-        <v>410</v>
-      </c>
       <c r="M52" t="n">
-        <v>2</v>
-      </c>
-      <c r="N52" t="s">
-        <v>411</v>
-      </c>
-      <c r="O52" t="s">
-        <v>53</v>
-      </c>
-      <c r="P52" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
-      <c r="S52" t="n">
-        <v>2</v>
-      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>3</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53">
@@ -5131,7 +5890,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5140,41 +5899,39 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J53" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K53" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L53" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
       <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>1</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54">
@@ -5190,7 +5947,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5199,41 +5956,35 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="J54" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="K54" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="L54" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>424</v>
+        <v>369</v>
       </c>
       <c r="O54" t="s">
         <v>53</v>
       </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
+      <c r="P54" t="s"/>
       <c r="Q54" t="n">
         <v>5</v>
       </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5241,7 +5992,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55">
@@ -5257,7 +6008,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5266,38 +6017,34 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="J55" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="K55" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="L55" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="O55" t="s">
-        <v>91</v>
-      </c>
-      <c r="P55" t="n">
-        <v>2</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P55" t="s"/>
       <c r="Q55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>2</v>
-      </c>
-      <c r="S55" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
         <v>1</v>
@@ -5308,7 +6055,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56">
@@ -5324,7 +6071,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5333,49 +6080,39 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="J56" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="K56" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="L56" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="O56" t="s">
-        <v>91</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>3</v>
-      </c>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>3</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57">
@@ -5391,7 +6128,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5400,49 +6137,2614 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="J57" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="K57" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="L57" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="O57" t="s">
         <v>53</v>
       </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>4</v>
-      </c>
-      <c r="R57" t="n">
-        <v>2</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>4</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>437</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>438</v>
+      </c>
+      <c r="J58" t="s">
+        <v>439</v>
+      </c>
+      <c r="K58" t="s">
+        <v>440</v>
+      </c>
+      <c r="L58" t="s">
+        <v>441</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>442</v>
+      </c>
+      <c r="O58" t="s">
+        <v>90</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
         <v>443</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>444</v>
+      </c>
+      <c r="J59" t="s">
+        <v>445</v>
+      </c>
+      <c r="K59" t="s">
+        <v>446</v>
+      </c>
+      <c r="L59" t="s">
+        <v>447</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>442</v>
+      </c>
+      <c r="O59" t="s">
+        <v>73</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>448</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>449</v>
+      </c>
+      <c r="J60" t="s">
+        <v>450</v>
+      </c>
+      <c r="K60" t="s">
+        <v>451</v>
+      </c>
+      <c r="L60" t="s">
+        <v>452</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>453</v>
+      </c>
+      <c r="O60" t="s">
+        <v>96</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>454</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>455</v>
+      </c>
+      <c r="J61" t="s">
+        <v>456</v>
+      </c>
+      <c r="K61" t="s">
+        <v>457</v>
+      </c>
+      <c r="L61" t="s">
+        <v>458</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>459</v>
+      </c>
+      <c r="O61" t="s">
+        <v>73</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>460</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>461</v>
+      </c>
+      <c r="J62" t="s">
+        <v>462</v>
+      </c>
+      <c r="K62" t="s">
+        <v>463</v>
+      </c>
+      <c r="L62" t="s">
+        <v>464</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>459</v>
+      </c>
+      <c r="O62" t="s">
+        <v>73</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>466</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>467</v>
+      </c>
+      <c r="J63" t="s">
+        <v>468</v>
+      </c>
+      <c r="K63" t="s">
+        <v>469</v>
+      </c>
+      <c r="L63" t="s">
+        <v>470</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>471</v>
+      </c>
+      <c r="O63" t="s">
+        <v>73</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>472</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>473</v>
+      </c>
+      <c r="J64" t="s">
+        <v>474</v>
+      </c>
+      <c r="K64" t="s">
+        <v>475</v>
+      </c>
+      <c r="L64" t="s">
+        <v>476</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>477</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>478</v>
+      </c>
+      <c r="X64" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>481</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>482</v>
+      </c>
+      <c r="J65" t="s">
+        <v>483</v>
+      </c>
+      <c r="K65" t="s">
+        <v>484</v>
+      </c>
+      <c r="L65" t="s">
+        <v>485</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>486</v>
+      </c>
+      <c r="O65" t="s">
+        <v>90</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>478</v>
+      </c>
+      <c r="X65" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>488</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>489</v>
+      </c>
+      <c r="J66" t="s">
+        <v>490</v>
+      </c>
+      <c r="K66" t="s">
+        <v>491</v>
+      </c>
+      <c r="L66" t="s">
+        <v>492</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>493</v>
+      </c>
+      <c r="O66" t="s">
+        <v>80</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>494</v>
+      </c>
+      <c r="X66" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>497</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>498</v>
+      </c>
+      <c r="J67" t="s">
+        <v>499</v>
+      </c>
+      <c r="K67" t="s">
+        <v>500</v>
+      </c>
+      <c r="L67" t="s">
+        <v>501</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>494</v>
+      </c>
+      <c r="X67" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>503</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>504</v>
+      </c>
+      <c r="J68" t="s">
+        <v>505</v>
+      </c>
+      <c r="K68" t="s">
+        <v>506</v>
+      </c>
+      <c r="L68" t="s">
+        <v>507</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>508</v>
+      </c>
+      <c r="O68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>509</v>
+      </c>
+      <c r="X68" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>512</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>513</v>
+      </c>
+      <c r="J69" t="s">
+        <v>514</v>
+      </c>
+      <c r="K69" t="s">
+        <v>440</v>
+      </c>
+      <c r="L69" t="s">
+        <v>515</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>516</v>
+      </c>
+      <c r="O69" t="s">
+        <v>73</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>517</v>
+      </c>
+      <c r="X69" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>520</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>521</v>
+      </c>
+      <c r="J70" t="s">
+        <v>522</v>
+      </c>
+      <c r="K70" t="s">
+        <v>523</v>
+      </c>
+      <c r="L70" t="s">
+        <v>524</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>525</v>
+      </c>
+      <c r="O70" t="s">
+        <v>80</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>517</v>
+      </c>
+      <c r="X70" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>527</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>528</v>
+      </c>
+      <c r="J71" t="s">
+        <v>529</v>
+      </c>
+      <c r="K71" t="s">
+        <v>530</v>
+      </c>
+      <c r="L71" t="s">
+        <v>531</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>525</v>
+      </c>
+      <c r="O71" t="s">
+        <v>96</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>517</v>
+      </c>
+      <c r="X71" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>533</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>534</v>
+      </c>
+      <c r="J72" t="s">
+        <v>535</v>
+      </c>
+      <c r="K72" t="s">
+        <v>536</v>
+      </c>
+      <c r="L72" t="s">
+        <v>537</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>538</v>
+      </c>
+      <c r="O72" t="s">
+        <v>73</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>539</v>
+      </c>
+      <c r="X72" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>542</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>543</v>
+      </c>
+      <c r="J73" t="s">
+        <v>544</v>
+      </c>
+      <c r="K73" t="s">
+        <v>545</v>
+      </c>
+      <c r="L73" t="s">
+        <v>546</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>538</v>
+      </c>
+      <c r="O73" t="s">
+        <v>73</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>517</v>
+      </c>
+      <c r="X73" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>548</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>549</v>
+      </c>
+      <c r="J74" t="s">
+        <v>550</v>
+      </c>
+      <c r="K74" t="s">
+        <v>551</v>
+      </c>
+      <c r="L74" t="s">
+        <v>552</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>553</v>
+      </c>
+      <c r="O74" t="s">
+        <v>80</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>554</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>555</v>
+      </c>
+      <c r="J75" t="s">
+        <v>556</v>
+      </c>
+      <c r="K75" t="s">
+        <v>557</v>
+      </c>
+      <c r="L75" t="s">
+        <v>558</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>559</v>
+      </c>
+      <c r="O75" t="s">
+        <v>90</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>560</v>
+      </c>
+      <c r="X75" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>563</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>564</v>
+      </c>
+      <c r="J76" t="s">
+        <v>565</v>
+      </c>
+      <c r="K76" t="s">
+        <v>566</v>
+      </c>
+      <c r="L76" t="s">
+        <v>567</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>568</v>
+      </c>
+      <c r="O76" t="s">
+        <v>73</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>560</v>
+      </c>
+      <c r="X76" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>570</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>571</v>
+      </c>
+      <c r="J77" t="s">
+        <v>572</v>
+      </c>
+      <c r="K77" t="s">
+        <v>573</v>
+      </c>
+      <c r="L77" t="s">
+        <v>574</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>568</v>
+      </c>
+      <c r="O77" t="s">
+        <v>73</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>575</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>576</v>
+      </c>
+      <c r="J78" t="s">
+        <v>577</v>
+      </c>
+      <c r="K78" t="s">
+        <v>578</v>
+      </c>
+      <c r="L78" t="s">
+        <v>579</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>580</v>
+      </c>
+      <c r="X78" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>583</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>584</v>
+      </c>
+      <c r="J79" t="s">
+        <v>585</v>
+      </c>
+      <c r="K79" t="s">
+        <v>586</v>
+      </c>
+      <c r="L79" t="s">
+        <v>587</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>588</v>
+      </c>
+      <c r="O79" t="s">
+        <v>96</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>589</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>590</v>
+      </c>
+      <c r="J80" t="s">
+        <v>591</v>
+      </c>
+      <c r="K80" t="s">
+        <v>592</v>
+      </c>
+      <c r="L80" t="s">
+        <v>593</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>594</v>
+      </c>
+      <c r="O80" t="s">
+        <v>73</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>595</v>
+      </c>
+      <c r="X80" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>598</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>599</v>
+      </c>
+      <c r="J81" t="s">
+        <v>600</v>
+      </c>
+      <c r="K81" t="s">
+        <v>601</v>
+      </c>
+      <c r="L81" t="s">
+        <v>602</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>603</v>
+      </c>
+      <c r="O81" t="s">
+        <v>73</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>604</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>605</v>
+      </c>
+      <c r="J82" t="s">
+        <v>606</v>
+      </c>
+      <c r="K82" t="s">
+        <v>607</v>
+      </c>
+      <c r="L82" t="s">
+        <v>608</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>609</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>610</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>611</v>
+      </c>
+      <c r="J83" t="s">
+        <v>612</v>
+      </c>
+      <c r="K83" t="s">
+        <v>613</v>
+      </c>
+      <c r="L83" t="s">
+        <v>614</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>616</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>617</v>
+      </c>
+      <c r="J84" t="s">
+        <v>618</v>
+      </c>
+      <c r="K84" t="s">
+        <v>619</v>
+      </c>
+      <c r="L84" t="s">
+        <v>620</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>621</v>
+      </c>
+      <c r="O84" t="s">
+        <v>73</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>622</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>623</v>
+      </c>
+      <c r="J85" t="s">
+        <v>624</v>
+      </c>
+      <c r="K85" t="s">
+        <v>625</v>
+      </c>
+      <c r="L85" t="s">
+        <v>626</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>627</v>
+      </c>
+      <c r="O85" t="s">
+        <v>73</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>629</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>630</v>
+      </c>
+      <c r="J86" t="s">
+        <v>631</v>
+      </c>
+      <c r="K86" t="s">
+        <v>632</v>
+      </c>
+      <c r="L86" t="s">
+        <v>633</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>634</v>
+      </c>
+      <c r="O86" t="s">
+        <v>73</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>635</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>636</v>
+      </c>
+      <c r="J87" t="s">
+        <v>637</v>
+      </c>
+      <c r="K87" t="s">
+        <v>638</v>
+      </c>
+      <c r="L87" t="s">
+        <v>639</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>640</v>
+      </c>
+      <c r="O87" t="s">
+        <v>73</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>642</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>643</v>
+      </c>
+      <c r="J88" t="s">
+        <v>644</v>
+      </c>
+      <c r="K88" t="s">
+        <v>645</v>
+      </c>
+      <c r="L88" t="s">
+        <v>646</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>634</v>
+      </c>
+      <c r="O88" t="s">
+        <v>73</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>648</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>649</v>
+      </c>
+      <c r="J89" t="s">
+        <v>650</v>
+      </c>
+      <c r="K89" t="s">
+        <v>651</v>
+      </c>
+      <c r="L89" t="s">
+        <v>652</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>653</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>655</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>656</v>
+      </c>
+      <c r="J90" t="s">
+        <v>657</v>
+      </c>
+      <c r="K90" t="s">
+        <v>658</v>
+      </c>
+      <c r="L90" t="s">
+        <v>659</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>653</v>
+      </c>
+      <c r="O90" t="s">
+        <v>73</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>660</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>661</v>
+      </c>
+      <c r="J91" t="s">
+        <v>662</v>
+      </c>
+      <c r="K91" t="s">
+        <v>663</v>
+      </c>
+      <c r="L91" t="s">
+        <v>664</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>665</v>
+      </c>
+      <c r="O91" t="s">
+        <v>73</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>666</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>667</v>
+      </c>
+      <c r="J92" t="s">
+        <v>668</v>
+      </c>
+      <c r="K92" t="s">
+        <v>669</v>
+      </c>
+      <c r="L92" t="s">
+        <v>670</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>671</v>
+      </c>
+      <c r="O92" t="s">
+        <v>90</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>673</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>674</v>
+      </c>
+      <c r="J93" t="s">
+        <v>675</v>
+      </c>
+      <c r="K93" t="s">
+        <v>676</v>
+      </c>
+      <c r="L93" t="s">
+        <v>677</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>678</v>
+      </c>
+      <c r="O93" t="s">
+        <v>73</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>680</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>681</v>
+      </c>
+      <c r="J94" t="s">
+        <v>682</v>
+      </c>
+      <c r="K94" t="s">
+        <v>683</v>
+      </c>
+      <c r="L94" t="s">
+        <v>684</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>685</v>
+      </c>
+      <c r="O94" t="s">
+        <v>73</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>687</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>688</v>
+      </c>
+      <c r="J95" t="s">
+        <v>689</v>
+      </c>
+      <c r="K95" t="s">
+        <v>690</v>
+      </c>
+      <c r="L95" t="s">
+        <v>691</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>692</v>
+      </c>
+      <c r="O95" t="s">
+        <v>90</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>29831</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>694</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>695</v>
+      </c>
+      <c r="J96" t="s">
+        <v>696</v>
+      </c>
+      <c r="K96" t="s">
+        <v>697</v>
+      </c>
+      <c r="L96" t="s">
+        <v>698</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>699</v>
+      </c>
+      <c r="O96" t="s">
+        <v>73</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
